--- a/backend/common/primary_data/沙田区升学数据.xlsx
+++ b/backend/common/primary_data/沙田区升学数据.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="15740" firstSheet="25" activeTab="29"/>
+    <workbookView windowHeight="15740" firstSheet="29" activeTab="33"/>
   </bookViews>
   <sheets>
     <sheet name="保良局王賜豪（田心穀）小學" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
     <sheet name="胡素貞博士紀念學校" sheetId="18" r:id="rId18"/>
     <sheet name="沙田圍胡素貞博士紀念學校" sheetId="19" r:id="rId19"/>
     <sheet name="世界龍岡學校黃耀南小學" sheetId="20" r:id="rId20"/>
-    <sheet name="路德會梁鉅镠小學" sheetId="21" r:id="rId21"/>
+    <sheet name="路德會梁鉅鏐小學" sheetId="21" r:id="rId21"/>
     <sheet name="保良局蕭漢森小學" sheetId="22" r:id="rId22"/>
     <sheet name="保良局朱正賢小學" sheetId="23" r:id="rId23"/>
     <sheet name="聖公會主風小學" sheetId="24" r:id="rId24"/>
@@ -65,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1600" uniqueCount="296">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1586" uniqueCount="291">
   <si>
     <t>是否可统计升中数据</t>
   </si>
@@ -673,38 +673,6 @@
     <t>台山商會中學</t>
   </si>
   <si>
-    <r>
-      <t>沙田循道</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF262626"/>
-        <rFont val="宋体-简"/>
-        <charset val="134"/>
-      </rPr>
-      <t>衞</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF262626"/>
-        <rFont val="Microsoft YaHei"/>
-        <charset val="134"/>
-      </rPr>
-      <t>理中</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF262626"/>
-        <rFont val="宋体-简"/>
-        <charset val="134"/>
-      </rPr>
-      <t>學</t>
-    </r>
-  </si>
-  <si>
     <t>明愛馬鞍山中學</t>
   </si>
   <si>
@@ -1018,9 +986,6 @@
     <t>香島中學</t>
   </si>
   <si>
-    <t>2021-2023</t>
-  </si>
-  <si>
     <t>官立嘉道理爵士中學（西九龍）</t>
   </si>
   <si>
@@ -2088,7 +2053,13 @@
   </si>
   <si>
     <r>
-      <t>林大</t>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF262626"/>
+        <rFont val="Microsoft YaHei"/>
+        <charset val="134"/>
+      </rPr>
+      <t>炮</t>
     </r>
     <r>
       <rPr>
@@ -2097,7 +2068,7 @@
         <rFont val="宋体-简"/>
         <charset val="134"/>
       </rPr>
-      <t>輝</t>
+      <t>臺</t>
     </r>
     <r>
       <rPr>
@@ -2106,7 +2077,7 @@
         <rFont val="Microsoft YaHei"/>
         <charset val="134"/>
       </rPr>
-      <t>中</t>
+      <t>山循道</t>
     </r>
     <r>
       <rPr>
@@ -2115,12 +2086,16 @@
         <rFont val="宋体-简"/>
         <charset val="134"/>
       </rPr>
-      <t>學</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>炮</t>
+      <t>衞</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF262626"/>
+        <rFont val="Microsoft YaHei"/>
+        <charset val="134"/>
+      </rPr>
+      <t>理中</t>
     </r>
     <r>
       <rPr>
@@ -2129,8 +2104,37 @@
         <rFont val="宋体-简"/>
         <charset val="134"/>
       </rPr>
-      <t>臺</t>
-    </r>
+      <t>學</t>
+    </r>
+  </si>
+  <si>
+    <t>香港道教聯合會圓玄學院第一中學</t>
+  </si>
+  <si>
+    <t>博愛醫院歷屆總理聯誼會梁省德中學</t>
+  </si>
+  <si>
+    <t>香港道教聯合會青松中學</t>
+  </si>
+  <si>
+    <t>瑪利諾中學</t>
+  </si>
+  <si>
+    <t>廠商會中學</t>
+  </si>
+  <si>
+    <t>仁濟醫院第二中學</t>
+  </si>
+  <si>
+    <t>葵涌蘇浙公學</t>
+  </si>
+  <si>
+    <t>聖公會諸聖中學</t>
+  </si>
+  <si>
+    <t>天主教慈幼會伍少梅中學</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="12"/>
@@ -2138,7 +2142,7 @@
         <rFont val="Microsoft YaHei"/>
         <charset val="134"/>
       </rPr>
-      <t>山循道</t>
+      <t>中</t>
     </r>
     <r>
       <rPr>
@@ -2147,7 +2151,7 @@
         <rFont val="宋体-简"/>
         <charset val="134"/>
       </rPr>
-      <t>衞</t>
+      <t>華</t>
     </r>
     <r>
       <rPr>
@@ -2156,7 +2160,7 @@
         <rFont val="Microsoft YaHei"/>
         <charset val="134"/>
       </rPr>
-      <t>理中</t>
+      <t>基督教</t>
     </r>
     <r>
       <rPr>
@@ -2165,37 +2169,8 @@
         <rFont val="宋体-简"/>
         <charset val="134"/>
       </rPr>
-      <t>學</t>
-    </r>
-  </si>
-  <si>
-    <t>香港道教聯合會圓玄學院第一中學</t>
-  </si>
-  <si>
-    <t>博愛醫院歷屆總理聯誼會梁省德中學</t>
-  </si>
-  <si>
-    <t>香港道教聯合會青松中學</t>
-  </si>
-  <si>
-    <t>瑪利諾中學</t>
-  </si>
-  <si>
-    <t>廠商會中學</t>
-  </si>
-  <si>
-    <t>仁濟醫院第二中學</t>
-  </si>
-  <si>
-    <t>葵涌蘇浙公學</t>
-  </si>
-  <si>
-    <t>聖公會諸聖中學</t>
-  </si>
-  <si>
-    <t>天主教慈幼會伍少梅中學</t>
-  </si>
-  <si>
+      <t>會</t>
+    </r>
     <r>
       <rPr>
         <sz val="12"/>
@@ -2203,7 +2178,7 @@
         <rFont val="Microsoft YaHei"/>
         <charset val="134"/>
       </rPr>
-      <t>中</t>
+      <t>扶</t>
     </r>
     <r>
       <rPr>
@@ -2212,7 +2187,7 @@
         <rFont val="宋体-简"/>
         <charset val="134"/>
       </rPr>
-      <t>華</t>
+      <t>輪</t>
     </r>
     <r>
       <rPr>
@@ -2221,7 +2196,7 @@
         <rFont val="Microsoft YaHei"/>
         <charset val="134"/>
       </rPr>
-      <t>基督教</t>
+      <t>中</t>
     </r>
     <r>
       <rPr>
@@ -2230,42 +2205,6 @@
         <rFont val="宋体-简"/>
         <charset val="134"/>
       </rPr>
-      <t>會</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF262626"/>
-        <rFont val="Microsoft YaHei"/>
-        <charset val="134"/>
-      </rPr>
-      <t>扶</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF262626"/>
-        <rFont val="宋体-简"/>
-        <charset val="134"/>
-      </rPr>
-      <t>輪</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF262626"/>
-        <rFont val="Microsoft YaHei"/>
-        <charset val="134"/>
-      </rPr>
-      <t>中</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF262626"/>
-        <rFont val="宋体-简"/>
-        <charset val="134"/>
-      </rPr>
       <t>學</t>
     </r>
   </si>
@@ -2274,88 +2213,6 @@
   </si>
   <si>
     <t>香港航海學校</t>
-  </si>
-  <si>
-    <r>
-      <t>香港神</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF262626"/>
-        <rFont val="宋体-简"/>
-        <charset val="134"/>
-      </rPr>
-      <t>託會</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF262626"/>
-        <rFont val="Microsoft YaHei"/>
-        <charset val="134"/>
-      </rPr>
-      <t>培基</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF262626"/>
-        <rFont val="宋体-简"/>
-        <charset val="134"/>
-      </rPr>
-      <t>書</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF262626"/>
-        <rFont val="Microsoft YaHei"/>
-        <charset val="134"/>
-      </rPr>
-      <t>院</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>梁文燕</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF262626"/>
-        <rFont val="宋体-简"/>
-        <charset val="134"/>
-      </rPr>
-      <t>紀</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF262626"/>
-        <rFont val="Microsoft YaHei"/>
-        <charset val="134"/>
-      </rPr>
-      <t>念中</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF262626"/>
-        <rFont val="宋体-简"/>
-        <charset val="134"/>
-      </rPr>
-      <t>學</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF262626"/>
-        <rFont val="Microsoft YaHei"/>
-        <charset val="134"/>
-      </rPr>
-      <t>（沙田）</t>
-    </r>
   </si>
   <si>
     <t>東華三院伍若瑜夫人紀念中學</t>
@@ -2403,9 +2260,6 @@
     </r>
   </si>
   <si>
-    <t>2023-2024</t>
-  </si>
-  <si>
     <t>基督教香港信義會元朗信義中學</t>
   </si>
   <si>
@@ -2464,6 +2318,9 @@
       </rPr>
       <t>https://www.stts.edu.hk/tc/%E5%8D%87%E4%B8%AD%E6%A6%82%E6%B3%81</t>
     </r>
+  </si>
+  <si>
+    <t>2023-2024</t>
   </si>
   <si>
     <t>鄭榮之中學</t>
@@ -4704,7 +4561,7 @@
     </row>
     <row r="8" ht="20" customHeight="1" spans="1:5">
       <c r="C8" s="2" t="s">
-        <v>119</v>
+        <v>74</v>
       </c>
       <c r="D8" s="3">
         <v>11</v>
@@ -4720,7 +4577,7 @@
     </row>
     <row r="10" ht="20" customHeight="1" spans="1:5">
       <c r="C10" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D10" s="3">
         <v>1</v>
@@ -4736,7 +4593,7 @@
     </row>
     <row r="12" ht="20" customHeight="1" spans="1:5">
       <c r="C12" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D12" s="3">
         <v>4</v>
@@ -4816,7 +4673,7 @@
     </row>
     <row r="22" ht="20" customHeight="1" spans="3:4">
       <c r="C22" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D22" s="3">
         <v>3</v>
@@ -4824,7 +4681,7 @@
     </row>
     <row r="23" ht="20" customHeight="1" spans="3:4">
       <c r="C23" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D23" s="3">
         <v>1</v>
@@ -4856,7 +4713,7 @@
     </row>
     <row r="27" ht="20" customHeight="1" spans="3:4">
       <c r="C27" s="11" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D27" s="3">
         <v>1</v>
@@ -4880,7 +4737,7 @@
     </row>
     <row r="30" ht="20" customHeight="1" spans="3:4">
       <c r="C30" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D30" s="3">
         <v>1</v>
@@ -4888,7 +4745,7 @@
     </row>
     <row r="31" ht="20" customHeight="1" spans="3:4">
       <c r="C31" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D31" s="3">
         <v>1</v>
@@ -4896,7 +4753,7 @@
     </row>
     <row r="32" ht="20" customHeight="1" spans="3:4">
       <c r="C32" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D32" s="3">
         <v>1</v>
@@ -4912,7 +4769,7 @@
     </row>
     <row r="34" ht="20" customHeight="1" spans="3:4">
       <c r="C34" s="8" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D34" s="3">
         <v>2</v>
@@ -4920,7 +4777,7 @@
     </row>
     <row r="35" ht="20" customHeight="1" spans="3:4">
       <c r="C35" s="11" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D35" s="3">
         <v>1</v>
@@ -4989,7 +4846,7 @@
       </c>
       <c r="D2" s="3"/>
       <c r="E2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="3" ht="20" customHeight="1" spans="1:5">
@@ -5066,19 +4923,19 @@
     </row>
     <row r="15" ht="20" customHeight="1" spans="1:5">
       <c r="C15" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D15" s="3"/>
     </row>
     <row r="16" ht="20" customHeight="1" spans="1:5">
       <c r="C16" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D16" s="3"/>
     </row>
     <row r="17" ht="20" customHeight="1" spans="3:4">
       <c r="C17" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D17" s="3"/>
     </row>
@@ -5090,7 +4947,7 @@
     </row>
     <row r="19" ht="20" customHeight="1" spans="3:4">
       <c r="C19" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D19" s="3"/>
     </row>
@@ -5117,7 +4974,7 @@
   <dimension ref="A1:E29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14" defaultRowHeight="18" customHeight="1" outlineLevelCol="4"/>
@@ -5146,17 +5003,17 @@
       <c r="A2" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>6</v>
+      <c r="B2" s="2">
+        <v>2025</v>
       </c>
       <c r="C2" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="D2" s="3">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
         <v>135</v>
-      </c>
-      <c r="D2" s="3">
-        <v>1</v>
-      </c>
-      <c r="E2" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="3" ht="17.6" spans="1:5">
@@ -5168,7 +5025,7 @@
         <v>3</v>
       </c>
       <c r="E3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="4" ht="17.6" spans="1:5">
@@ -5228,7 +5085,7 @@
     <row r="10" ht="17.6" spans="1:5">
       <c r="B10" s="4"/>
       <c r="C10" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D10" s="3">
         <v>1</v>
@@ -5271,8 +5128,8 @@
       </c>
     </row>
     <row r="15" ht="17.6" spans="1:5">
-      <c r="B15" s="2" t="s">
-        <v>139</v>
+      <c r="B15" s="2">
+        <v>2023</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>52</v>
@@ -5392,7 +5249,7 @@
     <row r="28" ht="17.6" spans="2:4">
       <c r="B28" s="4"/>
       <c r="C28" s="2" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D28" s="3">
         <v>1</v>
@@ -5401,7 +5258,7 @@
     <row r="29" ht="17.6" spans="2:4">
       <c r="B29" s="4"/>
       <c r="C29" s="2" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D29" s="3">
         <v>1</v>
@@ -5426,7 +5283,7 @@
   <dimension ref="A1:F23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14" defaultRowHeight="18" customHeight="1" outlineLevelCol="5"/>
@@ -5452,24 +5309,24 @@
         <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="2" ht="17.6" spans="1:6">
       <c r="A2" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>82</v>
+      <c r="B2" s="2">
+        <v>2025</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D2" s="3">
         <v>1</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="F2">
         <v>97</v>
@@ -5484,7 +5341,7 @@
         <v>5</v>
       </c>
       <c r="E3" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="4" ht="17.6" spans="1:6">
@@ -5713,11 +5570,11 @@
     <row r="2" ht="17.6" spans="1:5">
       <c r="B2" s="2"/>
       <c r="C2" s="2" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D2" s="3"/>
       <c r="E2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="3" ht="17.6" spans="1:5">
@@ -5870,7 +5727,7 @@
     <row r="24" ht="17.6" spans="2:4">
       <c r="B24" s="2"/>
       <c r="C24" s="2" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
   </sheetData>
@@ -5888,7 +5745,7 @@
   <dimension ref="A1:F26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14" defaultRowHeight="18" customHeight="1" outlineLevelCol="5"/>
@@ -5913,15 +5770,15 @@
         <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="2" ht="17.6" spans="1:6">
       <c r="A2" t="s">
         <v>5</v>
       </c>
-      <c r="B2" t="s">
-        <v>82</v>
+      <c r="B2">
+        <v>2025</v>
       </c>
       <c r="C2" s="20" t="s">
         <v>7</v>
@@ -5941,7 +5798,7 @@
         <v>8</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="4" ht="17.6" spans="1:6">
@@ -5952,7 +5809,7 @@
         <v>6</v>
       </c>
       <c r="E4" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="5" ht="17.6" spans="1:6">
@@ -6005,7 +5862,7 @@
     </row>
     <row r="11" ht="17.6" spans="1:6">
       <c r="C11" s="20" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D11" s="20">
         <v>1</v>
@@ -6021,7 +5878,7 @@
     </row>
     <row r="13" ht="17.6" spans="1:6">
       <c r="C13" s="20" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D13" s="20">
         <v>1</v>
@@ -6045,7 +5902,7 @@
     </row>
     <row r="16" ht="17.6" spans="1:6">
       <c r="C16" s="20" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D16" s="20">
         <v>4</v>
@@ -6053,7 +5910,7 @@
     </row>
     <row r="17" ht="17.6" spans="3:4">
       <c r="C17" s="20" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D17" s="20">
         <v>1</v>
@@ -6069,7 +5926,7 @@
     </row>
     <row r="19" ht="17.6" spans="3:4">
       <c r="C19" s="20" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D19" s="20">
         <v>1</v>
@@ -6077,7 +5934,7 @@
     </row>
     <row r="20" ht="17.6" spans="3:4">
       <c r="C20" s="20" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D20" s="20">
         <v>1</v>
@@ -6085,7 +5942,7 @@
     </row>
     <row r="21" ht="17.6" spans="3:4">
       <c r="C21" s="20" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D21" s="20">
         <v>1</v>
@@ -6093,7 +5950,7 @@
     </row>
     <row r="22" ht="17.6" spans="3:4">
       <c r="C22" s="20" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D22" s="20">
         <v>1</v>
@@ -6101,7 +5958,7 @@
     </row>
     <row r="23" ht="17.6" spans="3:4">
       <c r="C23" s="20" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D23" s="20">
         <v>1</v>
@@ -6109,7 +5966,7 @@
     </row>
     <row r="24" ht="17.6" spans="3:4">
       <c r="C24" s="20" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D24" s="20">
         <v>1</v>
@@ -6117,7 +5974,7 @@
     </row>
     <row r="25" ht="17.6" spans="3:4">
       <c r="C25" s="20" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D25" s="20">
         <v>1</v>
@@ -6178,7 +6035,7 @@
         <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="2" ht="17.6" spans="1:6">
@@ -6195,7 +6052,7 @@
         <v>10</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="F2" s="5">
         <v>122</v>
@@ -6210,7 +6067,7 @@
         <v>5</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="4" ht="17.6" spans="1:6">
@@ -6315,7 +6172,7 @@
     <row r="15" spans="1:6">
       <c r="B15" s="4"/>
       <c r="C15" s="2" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D15" s="3">
         <v>5</v>
@@ -6324,7 +6181,7 @@
     <row r="16" spans="1:6">
       <c r="B16" s="4"/>
       <c r="C16" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D16" s="3">
         <v>2</v>
@@ -6333,7 +6190,7 @@
     <row r="17" spans="2:4">
       <c r="B17" s="4"/>
       <c r="C17" s="2" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D17" s="3">
         <v>1</v>
@@ -6378,7 +6235,7 @@
     <row r="22" spans="2:4">
       <c r="B22" s="4"/>
       <c r="C22" s="2" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D22" s="3">
         <v>2</v>
@@ -6396,7 +6253,7 @@
     <row r="24" spans="2:4">
       <c r="B24" s="4"/>
       <c r="C24" s="11" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D24" s="3">
         <v>1</v>
@@ -6405,7 +6262,7 @@
     <row r="25" spans="2:4">
       <c r="B25" s="4"/>
       <c r="C25" s="2" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D25" s="3">
         <v>1</v>
@@ -6432,7 +6289,7 @@
     <row r="28" spans="2:4">
       <c r="B28" s="4"/>
       <c r="C28" s="11" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="D28" s="3">
         <v>1</v>
@@ -6441,7 +6298,7 @@
     <row r="29" ht="17.6" spans="2:4">
       <c r="B29" s="4"/>
       <c r="C29" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D29" s="3">
         <v>6</v>
@@ -6450,7 +6307,7 @@
     <row r="30" ht="17.6" spans="2:4">
       <c r="B30" s="4"/>
       <c r="C30" s="2" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D30" s="3">
         <v>8</v>
@@ -6459,7 +6316,7 @@
     <row r="31" spans="2:4">
       <c r="B31" s="4"/>
       <c r="C31" s="11" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D31" s="3">
         <v>1</v>
@@ -6468,7 +6325,7 @@
     <row r="32" spans="2:4">
       <c r="B32" s="4"/>
       <c r="C32" s="11" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D32" s="3">
         <v>1</v>
@@ -6477,7 +6334,7 @@
     <row r="33" spans="2:6">
       <c r="B33" s="4"/>
       <c r="C33" s="11" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D33" s="3">
         <v>1</v>
@@ -6486,7 +6343,7 @@
     <row r="34" spans="2:6">
       <c r="B34" s="4"/>
       <c r="C34" s="11" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D34" s="3">
         <v>1</v>
@@ -6495,7 +6352,7 @@
     <row r="35" spans="2:6">
       <c r="B35" s="4"/>
       <c r="C35" s="2" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D35" s="3">
         <v>1</v>
@@ -6504,7 +6361,7 @@
     <row r="36" ht="17.6" spans="2:6">
       <c r="B36" s="4"/>
       <c r="C36" s="2" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="D36" s="3">
         <v>1</v>
@@ -6522,7 +6379,7 @@
     <row r="38" ht="17.6" spans="2:6">
       <c r="B38" s="4"/>
       <c r="C38" s="2" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D38" s="3">
         <v>1</v>
@@ -6531,7 +6388,7 @@
     <row r="39" ht="17.6" spans="2:6">
       <c r="B39" s="4"/>
       <c r="C39" s="2" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D39" s="3">
         <v>1</v>
@@ -6549,7 +6406,7 @@
     <row r="41" ht="17.6" spans="2:6">
       <c r="B41" s="4"/>
       <c r="C41" s="2" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="D41" s="3">
         <v>1</v>
@@ -6680,7 +6537,7 @@
     <row r="55" spans="2:4">
       <c r="B55" s="4"/>
       <c r="C55" s="2" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D55" s="3">
         <v>1</v>
@@ -6689,7 +6546,7 @@
     <row r="56" spans="2:4">
       <c r="B56" s="4"/>
       <c r="C56" s="2" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D56" s="3">
         <v>3</v>
@@ -6698,7 +6555,7 @@
     <row r="57" ht="17.6" spans="2:4">
       <c r="B57" s="4"/>
       <c r="C57" s="2" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D57" s="3">
         <v>1</v>
@@ -6707,7 +6564,7 @@
     <row r="58" spans="2:4">
       <c r="B58" s="4"/>
       <c r="C58" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D58" s="3">
         <v>1</v>
@@ -6734,7 +6591,7 @@
     <row r="61" ht="17.6" spans="2:4">
       <c r="B61" s="4"/>
       <c r="C61" s="2" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D61" s="3">
         <v>3</v>
@@ -6761,7 +6618,7 @@
     <row r="64" spans="2:4">
       <c r="B64" s="4"/>
       <c r="C64" s="2" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D64" s="3">
         <v>2</v>
@@ -6806,7 +6663,7 @@
     <row r="69" ht="17.6" spans="2:4">
       <c r="B69" s="4"/>
       <c r="C69" s="2" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D69" s="3">
         <v>1</v>
@@ -6815,7 +6672,7 @@
     <row r="70" ht="17.6" spans="2:4">
       <c r="B70" s="4"/>
       <c r="C70" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D70" s="3">
         <v>10</v>
@@ -6824,7 +6681,7 @@
     <row r="71" spans="2:4">
       <c r="B71" s="4"/>
       <c r="C71" s="2" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="D71" s="3">
         <v>1</v>
@@ -6842,7 +6699,7 @@
     <row r="73" ht="17.6" spans="2:4">
       <c r="B73" s="4"/>
       <c r="C73" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D73" s="3">
         <v>1</v>
@@ -6860,7 +6717,7 @@
     <row r="75" ht="17.6" spans="2:4">
       <c r="B75" s="4"/>
       <c r="C75" s="2" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="D75" s="3">
         <v>1</v>
@@ -6869,7 +6726,7 @@
     <row r="76" spans="2:4">
       <c r="B76" s="4"/>
       <c r="C76" s="11" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D76" s="3">
         <v>2</v>
@@ -6878,7 +6735,7 @@
     <row r="77" spans="2:4">
       <c r="B77" s="4"/>
       <c r="C77" s="11" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D77" s="3">
         <v>1</v>
@@ -6905,7 +6762,7 @@
     <row r="80" spans="2:4">
       <c r="B80" s="4"/>
       <c r="C80" s="2" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="D80" s="3">
         <v>1</v>
@@ -6914,7 +6771,7 @@
     <row r="81" spans="2:4">
       <c r="B81" s="4"/>
       <c r="C81" s="11" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D81" s="3">
         <v>1</v>
@@ -6923,7 +6780,7 @@
     <row r="82" spans="2:4">
       <c r="B82" s="4"/>
       <c r="C82" s="2" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D82" s="3">
         <v>1</v>
@@ -6932,7 +6789,7 @@
     <row r="83" ht="17.6" spans="2:4">
       <c r="B83" s="4"/>
       <c r="C83" s="11" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="D83" s="3">
         <v>1</v>
@@ -6941,7 +6798,7 @@
     <row r="84" ht="17.6" spans="2:4">
       <c r="B84" s="4"/>
       <c r="C84" s="2" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D84" s="3">
         <v>1</v>
@@ -6959,7 +6816,7 @@
     <row r="86" ht="17.6" spans="2:4">
       <c r="B86" s="4"/>
       <c r="C86" s="2" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="D86" s="3">
         <v>2</v>
@@ -6968,7 +6825,7 @@
     <row r="87" ht="17.6" spans="2:4">
       <c r="B87" s="4"/>
       <c r="C87" s="2" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="D87" s="3">
         <v>1</v>
@@ -7021,7 +6878,7 @@
         <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="2" ht="20" customHeight="1" spans="1:6">
@@ -7036,13 +6893,13 @@
       </c>
       <c r="D2" s="3"/>
       <c r="E2" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="3" ht="20" customHeight="1" spans="1:6">
       <c r="B3" s="4"/>
       <c r="C3" s="2" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="D3" s="3"/>
     </row>
@@ -7070,7 +6927,7 @@
     <row r="7" ht="20" customHeight="1" spans="1:6">
       <c r="B7" s="4"/>
       <c r="C7" s="2" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D7" s="3"/>
     </row>
@@ -7365,7 +7222,7 @@
         <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="2" ht="17.6" spans="1:6">
@@ -7377,7 +7234,7 @@
       </c>
       <c r="D2" s="3"/>
       <c r="E2" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="3" ht="17.6" spans="1:6">
@@ -7404,7 +7261,7 @@
     <row r="6" ht="17.6" spans="1:6">
       <c r="B6" s="4"/>
       <c r="C6" s="2" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="D6" s="3"/>
     </row>
@@ -7481,12 +7338,12 @@
     <row r="17" ht="17.6" spans="2:4">
       <c r="B17" s="4"/>
       <c r="C17" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="18" ht="17.6" spans="2:4">
       <c r="B18" s="2" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>52</v>
@@ -7545,7 +7402,7 @@
     <row r="26" ht="17.6" spans="2:4">
       <c r="B26" s="4"/>
       <c r="C26" s="2" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D26" s="3"/>
     </row>
@@ -7608,7 +7465,7 @@
     <row r="35" ht="17.6" spans="2:4">
       <c r="B35" s="4"/>
       <c r="C35" s="2" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D35" s="3"/>
     </row>
@@ -7622,7 +7479,7 @@
     <row r="37" ht="17.6" spans="2:4">
       <c r="B37" s="4"/>
       <c r="C37" s="2" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
   </sheetData>
@@ -7644,7 +7501,7 @@
   <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14" defaultRowHeight="18" customHeight="1" outlineLevelCol="5"/>
@@ -7669,7 +7526,7 @@
         <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="2" ht="17.6" spans="1:6">
@@ -7680,7 +7537,7 @@
         <v>2025</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D2" s="3">
         <v>1</v>
@@ -7699,7 +7556,7 @@
         <v>10</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="4" ht="17.6" spans="1:6">
@@ -7815,7 +7672,7 @@
     <row r="15" ht="17.6" spans="1:6">
       <c r="B15" s="4"/>
       <c r="C15" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D15" s="3">
         <v>1</v>
@@ -7871,7 +7728,7 @@
   <dimension ref="A1:F26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14" defaultRowHeight="18" customHeight="1" outlineLevelCol="5"/>
@@ -7896,15 +7753,15 @@
         <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="2" ht="20" customHeight="1" spans="1:6">
       <c r="A2" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>82</v>
+      <c r="B2" s="2">
+        <v>2025</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>15</v>
@@ -7913,7 +7770,7 @@
         <v>7</v>
       </c>
       <c r="E2" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="F2" s="5">
         <v>122</v>
@@ -8057,7 +7914,7 @@
     <row r="18" ht="20" customHeight="1" spans="2:4">
       <c r="B18" s="4"/>
       <c r="C18" s="11" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D18" s="3">
         <v>1</v>
@@ -8066,7 +7923,7 @@
     <row r="19" ht="20" customHeight="1" spans="2:4">
       <c r="B19" s="4"/>
       <c r="C19" s="2" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="D19" s="3">
         <v>1</v>
@@ -8084,7 +7941,7 @@
     <row r="21" ht="20" customHeight="1" spans="2:4">
       <c r="B21" s="4"/>
       <c r="C21" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D21" s="3">
         <v>1</v>
@@ -8123,7 +7980,7 @@
   <dimension ref="A1:F34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14" defaultRowHeight="18" customHeight="1" outlineLevelCol="5"/>
@@ -8148,30 +8005,30 @@
         <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="2" ht="17.6" spans="1:6">
       <c r="A2" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>82</v>
+      <c r="B2" s="2">
+        <v>2025</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="D2" s="3">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="3" ht="17.6" spans="1:6">
       <c r="B3" s="4"/>
       <c r="C3" s="2" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="D3" s="3">
         <v>1</v>
@@ -8189,7 +8046,7 @@
     <row r="5" ht="17.6" spans="1:6">
       <c r="B5" s="4"/>
       <c r="C5" s="2" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D5" s="3">
         <v>1</v>
@@ -8198,7 +8055,7 @@
     <row r="6" ht="17.6" spans="1:6">
       <c r="B6" s="4"/>
       <c r="C6" s="2" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="D6" s="3">
         <v>1</v>
@@ -8414,7 +8271,7 @@
     <row r="30" spans="2:4">
       <c r="B30" s="4"/>
       <c r="C30" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D30" s="3">
         <v>3</v>
@@ -8441,7 +8298,7 @@
     <row r="33" ht="17.6" spans="2:4">
       <c r="B33" s="4"/>
       <c r="C33" s="2" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D33" s="3">
         <v>2</v>
@@ -8474,7 +8331,7 @@
   <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14" defaultRowHeight="18" customHeight="1" outlineLevelCol="5"/>
@@ -8499,15 +8356,15 @@
         <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="2" ht="17.6" spans="1:6">
       <c r="A2" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>6</v>
+      <c r="B2" s="2">
+        <v>2025</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>52</v>
@@ -8516,7 +8373,7 @@
         <v>12</v>
       </c>
       <c r="E2" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="F2" s="5">
         <v>121</v>
@@ -8588,7 +8445,7 @@
     <row r="10" ht="17.6" spans="1:6">
       <c r="B10" s="4"/>
       <c r="C10" s="2" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="D10" s="3">
         <v>1</v>
@@ -8642,7 +8499,7 @@
     <row r="16" spans="1:6">
       <c r="B16" s="4"/>
       <c r="C16" s="2" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="D16" s="3">
         <v>6</v>
@@ -8728,7 +8585,7 @@
         <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="2" ht="17.6" spans="1:6">
@@ -8745,7 +8602,7 @@
         <v>3</v>
       </c>
       <c r="E2" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="3" ht="17.6" spans="1:6">
@@ -8985,7 +8842,7 @@
     <row r="29" ht="17.6" spans="2:4">
       <c r="B29" s="4"/>
       <c r="C29" s="2" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="D29" s="3">
         <v>1</v>
@@ -8994,7 +8851,7 @@
     <row r="30" ht="17.6" spans="2:4">
       <c r="B30" s="4"/>
       <c r="C30" s="2" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="D30" s="3">
         <v>1</v>
@@ -9003,7 +8860,7 @@
     <row r="31" ht="17.6" spans="2:4">
       <c r="B31" s="4"/>
       <c r="C31" s="2" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="D31" s="3">
         <v>1</v>
@@ -9027,7 +8884,7 @@
   <dimension ref="A1:F29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14" defaultRowHeight="18" customHeight="1" outlineLevelCol="5"/>
@@ -9052,24 +8909,24 @@
         <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="2" ht="17.6" spans="1:6">
       <c r="A2" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>82</v>
+      <c r="B2" s="2">
+        <v>2025</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D2" s="3">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="F2" s="5">
         <v>126</v>
@@ -9105,7 +8962,7 @@
     <row r="6" spans="1:6">
       <c r="B6" s="4"/>
       <c r="C6" s="2" t="s">
-        <v>119</v>
+        <v>74</v>
       </c>
       <c r="D6" s="3">
         <v>6</v>
@@ -9186,7 +9043,7 @@
     <row r="15" ht="17.6" spans="1:6">
       <c r="B15" s="4"/>
       <c r="C15" s="2" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D15" s="3">
         <v>1</v>
@@ -9231,7 +9088,7 @@
     <row r="20" ht="17.6" spans="2:4">
       <c r="B20" s="4"/>
       <c r="C20" s="2" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="D20" s="3">
         <v>1</v>
@@ -9312,7 +9169,7 @@
     <row r="29" ht="17.6" spans="2:4">
       <c r="B29" s="4"/>
       <c r="C29" s="2" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="D29" s="3">
         <v>1</v>
@@ -9362,7 +9219,7 @@
         <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="2" ht="19" customHeight="1" spans="1:6">
@@ -9376,7 +9233,7 @@
         <v>7</v>
       </c>
       <c r="E2" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
     </row>
     <row r="3" ht="15.2" spans="1:6">
@@ -9421,7 +9278,7 @@
     </row>
     <row r="11" ht="15.2" spans="1:6">
       <c r="C11" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="12" ht="15.2" spans="1:6">
@@ -9481,7 +9338,7 @@
     </row>
     <row r="23" ht="15.2" spans="3:3">
       <c r="C23" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="24" ht="15.2" spans="3:3">
@@ -9506,7 +9363,7 @@
     </row>
     <row r="28" ht="15.2" spans="3:3">
       <c r="C28" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="29" ht="15.2" spans="3:3">
@@ -9516,7 +9373,7 @@
     </row>
     <row r="30" ht="15.2" spans="3:3">
       <c r="C30" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="31" ht="15.2" spans="3:3">
@@ -9568,7 +9425,7 @@
         <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="2" ht="17.6" spans="1:6">
@@ -9579,13 +9436,13 @@
         <v>82</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="E2" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="3" ht="17.6" spans="1:6">
@@ -9663,7 +9520,7 @@
     <row r="15" ht="17.6" spans="1:6">
       <c r="B15" s="4"/>
       <c r="C15" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="16" ht="17.6" spans="1:6">
@@ -9729,13 +9586,13 @@
     <row r="26" ht="17.6" spans="2:3">
       <c r="B26" s="4"/>
       <c r="C26" s="2" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="27" ht="17.6" spans="2:3">
       <c r="B27" s="4"/>
       <c r="C27" s="2" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="28" ht="17.6" spans="2:3">
@@ -9763,7 +9620,7 @@
   <dimension ref="A1:F29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14" defaultRowHeight="18" customHeight="1" outlineLevelCol="5"/>
@@ -9788,15 +9645,15 @@
         <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="2" ht="17.6" spans="1:6">
       <c r="A2" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>82</v>
+      <c r="B2" s="2">
+        <v>2025</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>52</v>
@@ -9805,7 +9662,7 @@
         <v>24</v>
       </c>
       <c r="E2" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="3" ht="17.6" spans="1:6">
@@ -10009,7 +9866,7 @@
     <row r="25" spans="2:4">
       <c r="B25" s="4"/>
       <c r="C25" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D25" s="3">
         <v>3</v>
@@ -10045,7 +9902,7 @@
     <row r="29" spans="2:4">
       <c r="B29" s="4"/>
       <c r="C29" s="11" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D29" s="3">
         <v>1</v>
@@ -10273,7 +10130,7 @@
   <sheetPr codeName="東莞工商總會張煌偉小學"/>
   <dimension ref="A1:F86"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
+    <sheetView topLeftCell="A35" workbookViewId="0">
       <selection activeCell="C50" sqref="C50"/>
     </sheetView>
   </sheetViews>
@@ -10302,7 +10159,7 @@
         <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="2" ht="17.6" spans="1:6">
@@ -10319,7 +10176,7 @@
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="F2" s="13">
         <v>118</v>
@@ -10358,7 +10215,7 @@
     <row r="6" spans="1:6">
       <c r="B6" s="1"/>
       <c r="C6" s="2" t="s">
-        <v>225</v>
+        <v>161</v>
       </c>
       <c r="D6" s="3">
         <v>1</v>
@@ -10418,7 +10275,7 @@
     <row r="12" ht="17.6" spans="1:6">
       <c r="B12" s="1"/>
       <c r="C12" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D12" s="3">
         <v>6</v>
@@ -10478,7 +10335,7 @@
     <row r="18" spans="2:6">
       <c r="B18" s="1"/>
       <c r="C18" s="8" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="D18" s="3">
         <v>1</v>
@@ -10488,7 +10345,7 @@
     <row r="19" ht="17.6" spans="2:6">
       <c r="B19" s="1"/>
       <c r="C19" s="2" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="D19" s="3">
         <v>1</v>
@@ -10508,7 +10365,7 @@
     <row r="21" ht="17.6" spans="2:6">
       <c r="B21" s="1"/>
       <c r="C21" s="2" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="D21" s="3">
         <v>1</v>
@@ -10518,7 +10375,7 @@
     <row r="22" ht="17.6" spans="2:6">
       <c r="B22" s="1"/>
       <c r="C22" s="2" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="D22" s="3">
         <v>1</v>
@@ -10528,7 +10385,7 @@
     <row r="23" ht="17.6" spans="2:6">
       <c r="B23" s="1"/>
       <c r="C23" s="2" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="D23" s="3">
         <v>1</v>
@@ -10538,7 +10395,7 @@
     <row r="24" spans="2:6">
       <c r="B24" s="1"/>
       <c r="C24" s="8" t="s">
-        <v>119</v>
+        <v>74</v>
       </c>
       <c r="D24" s="3">
         <v>1</v>
@@ -10618,7 +10475,7 @@
     <row r="32" ht="17.6" spans="2:6">
       <c r="B32" s="1"/>
       <c r="C32" s="2" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D32" s="3">
         <v>8</v>
@@ -10678,7 +10535,7 @@
     <row r="38" ht="17.6" spans="2:6">
       <c r="B38" s="1"/>
       <c r="C38" s="2" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="D38" s="3">
         <v>1</v>
@@ -10688,7 +10545,7 @@
     <row r="39" ht="17.6" spans="2:6">
       <c r="B39" s="1"/>
       <c r="C39" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D39" s="3">
         <v>3</v>
@@ -10708,7 +10565,7 @@
     <row r="41" ht="17.6" spans="2:6">
       <c r="B41" s="1"/>
       <c r="C41" s="2" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="D41" s="3">
         <v>2</v>
@@ -10718,7 +10575,7 @@
     <row r="42" ht="17.6" spans="2:6">
       <c r="B42" s="1"/>
       <c r="C42" s="2" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D42" s="3">
         <v>1</v>
@@ -10728,7 +10585,7 @@
     <row r="43" ht="17.6" spans="2:6">
       <c r="B43" s="1"/>
       <c r="C43" s="2" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D43" s="3">
         <v>1</v>
@@ -10738,7 +10595,7 @@
     <row r="44" ht="17.6" spans="2:6">
       <c r="B44" s="1"/>
       <c r="C44" s="2" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="D44" s="3">
         <v>1</v>
@@ -10748,7 +10605,7 @@
     <row r="45" ht="17.6" spans="2:6">
       <c r="B45" s="1"/>
       <c r="C45" s="2" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="D45" s="3">
         <v>1</v>
@@ -10773,7 +10630,7 @@
     <row r="47" spans="2:6">
       <c r="B47" s="16"/>
       <c r="C47" s="12" t="s">
-        <v>119</v>
+        <v>74</v>
       </c>
       <c r="D47" s="12">
         <v>1</v>
@@ -10854,7 +10711,7 @@
     <row r="55" ht="17.6" spans="2:6">
       <c r="B55" s="1"/>
       <c r="C55" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D55" s="3">
         <v>4</v>
@@ -10914,7 +10771,7 @@
     <row r="61" ht="17.6" spans="2:6">
       <c r="B61" s="1"/>
       <c r="C61" s="2" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="D61" s="3">
         <v>1</v>
@@ -10924,7 +10781,7 @@
     <row r="62" ht="17.6" spans="2:6">
       <c r="B62" s="1"/>
       <c r="C62" s="2" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="D62" s="3">
         <v>1</v>
@@ -10944,7 +10801,7 @@
     <row r="64" spans="2:6">
       <c r="B64" s="1"/>
       <c r="C64" s="2" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="D64" s="3">
         <v>1</v>
@@ -10954,7 +10811,7 @@
     <row r="65" ht="17.6" spans="2:6">
       <c r="B65" s="1"/>
       <c r="C65" s="2" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="D65" s="3">
         <v>1</v>
@@ -10964,7 +10821,7 @@
     <row r="66" ht="17.6" spans="2:6">
       <c r="B66" s="1"/>
       <c r="C66" s="2" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="D66" s="3">
         <v>1</v>
@@ -11004,7 +10861,7 @@
     <row r="70" spans="2:6">
       <c r="B70" s="1"/>
       <c r="C70" s="2" t="s">
-        <v>239</v>
+        <v>127</v>
       </c>
       <c r="D70" s="3">
         <v>1</v>
@@ -11034,7 +10891,7 @@
     <row r="73" spans="2:6">
       <c r="B73" s="1"/>
       <c r="C73" s="2" t="s">
-        <v>240</v>
+        <v>165</v>
       </c>
       <c r="D73" s="3">
         <v>1</v>
@@ -11044,7 +10901,7 @@
     <row r="74" ht="17.6" spans="2:6">
       <c r="B74" s="1"/>
       <c r="C74" s="2" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D74" s="3">
         <v>7</v>
@@ -11114,7 +10971,7 @@
     <row r="81" ht="17.6" spans="2:6">
       <c r="B81" s="1"/>
       <c r="C81" s="2" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="D81" s="3">
         <v>3</v>
@@ -11124,7 +10981,7 @@
     <row r="82" ht="17.6" spans="2:6">
       <c r="B82" s="1"/>
       <c r="C82" s="2" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="D82" s="3">
         <v>1</v>
@@ -11134,7 +10991,7 @@
     <row r="83" ht="17.6" spans="2:6">
       <c r="B83" s="1"/>
       <c r="C83" s="2" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="D83" s="3">
         <v>1</v>
@@ -11144,7 +11001,7 @@
     <row r="84" ht="17.6" spans="2:6">
       <c r="B84" s="1"/>
       <c r="C84" s="2" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="D84" s="3">
         <v>1</v>
@@ -11154,7 +11011,7 @@
     <row r="85" ht="17.6" spans="2:6">
       <c r="B85" s="1"/>
       <c r="C85" s="2" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="D85" s="3">
         <v>1</v>
@@ -11217,7 +11074,7 @@
         <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="2" ht="17.6" spans="1:6">
@@ -11228,45 +11085,45 @@
         <v>6</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D2" s="3"/>
       <c r="E2" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
     </row>
     <row r="3" ht="17.6" spans="1:6">
       <c r="B3" s="4"/>
       <c r="C3" s="2" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="D3" s="3"/>
     </row>
     <row r="4" ht="17.6" spans="1:6">
       <c r="B4" s="4"/>
       <c r="C4" s="2" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="D4" s="3"/>
     </row>
     <row r="5" ht="17.6" spans="1:6">
       <c r="B5" s="4"/>
       <c r="C5" s="2" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="D5" s="3"/>
     </row>
     <row r="6" ht="17.6" spans="1:6">
       <c r="B6" s="4"/>
       <c r="C6" s="2" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="D6" s="3"/>
     </row>
     <row r="7" ht="17.6" spans="1:6">
       <c r="B7" s="4"/>
       <c r="C7" s="2" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="D7" s="3"/>
     </row>
@@ -11403,7 +11260,7 @@
         <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="2" ht="17.6" spans="1:6">
@@ -11563,8 +11420,8 @@
   <sheetPr codeName="馬鞍山靈糧小學"/>
   <dimension ref="A1:F55"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView topLeftCell="A41" workbookViewId="0">
+      <selection activeCell="A41" sqref="A41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14" defaultRowHeight="18" customHeight="1" outlineLevelCol="5"/>
@@ -11589,15 +11446,15 @@
         <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="2" ht="17.6" spans="1:6">
       <c r="A2" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>82</v>
+      <c r="B2" s="2">
+        <v>2025</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>19</v>
@@ -11606,7 +11463,7 @@
         <v>5</v>
       </c>
       <c r="E2" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="F2">
         <v>126</v>
@@ -11838,8 +11695,8 @@
       </c>
     </row>
     <row r="28" ht="17.6" spans="2:4">
-      <c r="B28" s="2" t="s">
-        <v>250</v>
+      <c r="B28" s="2">
+        <v>2024</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>89</v>
@@ -11905,7 +11762,7 @@
     <row r="35" ht="17.6" spans="2:4">
       <c r="B35" s="4"/>
       <c r="C35" s="2" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="D35" s="3">
         <v>1</v>
@@ -11914,7 +11771,7 @@
     <row r="36" ht="17.6" spans="2:4">
       <c r="B36" s="4"/>
       <c r="C36" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D36" s="3">
         <v>1</v>
@@ -11932,7 +11789,7 @@
     <row r="38" ht="17.6" spans="2:4">
       <c r="B38" s="4"/>
       <c r="C38" s="2" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="D38" s="3">
         <v>1</v>
@@ -11968,7 +11825,7 @@
     <row r="42" ht="17.6" spans="2:4">
       <c r="B42" s="4"/>
       <c r="C42" s="2" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="D42" s="3">
         <v>1</v>
@@ -12031,7 +11888,7 @@
     <row r="49" ht="17.6" spans="2:4">
       <c r="B49" s="4"/>
       <c r="C49" s="2" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="D49" s="3">
         <v>1</v>
@@ -12040,7 +11897,7 @@
     <row r="50" ht="17.6" spans="2:4">
       <c r="B50" s="4"/>
       <c r="C50" s="2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D50" s="3">
         <v>1</v>
@@ -12110,8 +11967,8 @@
   <sheetPr codeName="慈航學校"/>
   <dimension ref="A1:F77"/>
   <sheetViews>
-    <sheetView topLeftCell="A47" workbookViewId="0">
-      <selection activeCell="J61" sqref="J61"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14" defaultRowHeight="18" customHeight="1" outlineLevelCol="5"/>
@@ -12136,12 +11993,12 @@
         <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="2" ht="17.6" spans="1:6">
-      <c r="B2" s="2" t="s">
-        <v>82</v>
+      <c r="B2" s="2">
+        <v>2025</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>93</v>
@@ -12150,7 +12007,7 @@
         <v>1</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
     </row>
     <row r="3" ht="17.6" spans="1:6">
@@ -12255,7 +12112,7 @@
     <row r="14" ht="17.6" spans="1:6">
       <c r="B14" s="4"/>
       <c r="C14" s="2" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="D14" s="3">
         <v>1</v>
@@ -12282,7 +12139,7 @@
     <row r="17" ht="17.6" spans="2:4">
       <c r="B17" s="4"/>
       <c r="C17" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D17" s="3">
         <v>2</v>
@@ -12345,7 +12202,7 @@
     <row r="24" ht="17.6" spans="2:4">
       <c r="B24" s="4"/>
       <c r="C24" s="2" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="D24" s="3">
         <v>1</v>
@@ -12381,7 +12238,7 @@
     <row r="28" ht="17.6" spans="2:4">
       <c r="B28" s="4"/>
       <c r="C28" s="2" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D28" s="3">
         <v>4</v>
@@ -12390,15 +12247,15 @@
     <row r="29" ht="17.6" spans="2:4">
       <c r="B29" s="4"/>
       <c r="C29" s="2" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="D29" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="30" ht="17.6" spans="2:4">
-      <c r="B30" s="9" t="s">
-        <v>250</v>
+      <c r="B30" s="9">
+        <v>2024</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>52</v>
@@ -12482,7 +12339,7 @@
     <row r="39" ht="17.6" spans="2:4">
       <c r="B39" s="9"/>
       <c r="C39" s="2" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="D39" s="3">
         <v>1</v>
@@ -12500,7 +12357,7 @@
     <row r="41" ht="17.6" spans="2:4">
       <c r="B41" s="9"/>
       <c r="C41" s="2" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="D41" s="3">
         <v>0</v>
@@ -12509,7 +12366,7 @@
     <row r="42" ht="17.6" spans="2:4">
       <c r="B42" s="9"/>
       <c r="C42" s="2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D42" s="3">
         <v>0</v>
@@ -12563,7 +12420,7 @@
     <row r="48" ht="17.6" spans="2:4">
       <c r="B48" s="9"/>
       <c r="C48" s="2" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="D48" s="3">
         <v>1</v>
@@ -12590,7 +12447,7 @@
     <row r="51" ht="17.6" spans="2:4">
       <c r="B51" s="9"/>
       <c r="C51" s="2" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="D51" s="3">
         <v>1</v>
@@ -12599,7 +12456,7 @@
     <row r="52" ht="17.6" spans="2:4">
       <c r="B52" s="9"/>
       <c r="C52" s="2" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="D52" s="3">
         <v>1</v>
@@ -12608,7 +12465,7 @@
     <row r="53" ht="17.6" spans="2:4">
       <c r="B53" s="9"/>
       <c r="C53" s="2" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="D53" s="3">
         <v>0</v>
@@ -12662,7 +12519,7 @@
     <row r="59" ht="17.6" spans="2:4">
       <c r="B59" s="9"/>
       <c r="C59" s="2" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="D59" s="3">
         <v>0</v>
@@ -12671,7 +12528,7 @@
     <row r="60" ht="17.6" spans="2:4">
       <c r="B60" s="9"/>
       <c r="C60" s="2" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="D60" s="3">
         <v>0</v>
@@ -12680,7 +12537,7 @@
     <row r="61" spans="2:4">
       <c r="B61" s="9"/>
       <c r="C61" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D61" s="3">
         <v>2</v>
@@ -12689,7 +12546,7 @@
     <row r="62" ht="17.6" spans="2:4">
       <c r="B62" s="9"/>
       <c r="C62" s="2" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="D62" s="3">
         <v>1</v>
@@ -12788,7 +12645,7 @@
     <row r="73" ht="17.6" spans="2:4">
       <c r="B73" s="9"/>
       <c r="C73" s="2" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D73" s="3">
         <v>1</v>
@@ -12806,7 +12663,7 @@
     <row r="75" ht="17.6" spans="2:4">
       <c r="B75" s="9"/>
       <c r="C75" s="2" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="D75" s="3">
         <v>0</v>
@@ -12815,7 +12672,7 @@
     <row r="76" ht="17.6" spans="2:4">
       <c r="B76" s="9"/>
       <c r="C76" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D76" s="3">
         <v>0</v>
@@ -12868,7 +12725,7 @@
         <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="2" ht="17.6" spans="1:6">
@@ -12879,11 +12736,11 @@
         <v>82</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D2" s="3"/>
       <c r="E2" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
     </row>
     <row r="3" ht="17.6" spans="1:6">
@@ -12973,7 +12830,7 @@
     <row r="15" ht="17.6" spans="1:6">
       <c r="B15" s="4"/>
       <c r="C15" s="2" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D15" s="3"/>
     </row>
@@ -12987,7 +12844,7 @@
     <row r="17" ht="17.6" spans="2:4">
       <c r="B17" s="4"/>
       <c r="C17" s="2" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="D17" s="3"/>
     </row>
@@ -13098,7 +12955,7 @@
     </row>
     <row r="33" ht="17.6" spans="2:4">
       <c r="B33" s="2" t="s">
-        <v>250</v>
+        <v>262</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>14</v>
@@ -13122,7 +12979,7 @@
     <row r="36" ht="17.6" spans="2:4">
       <c r="B36" s="4"/>
       <c r="C36" s="2" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="D36" s="3"/>
     </row>
@@ -13227,7 +13084,7 @@
     <row r="51" ht="17.6" spans="2:4">
       <c r="B51" s="4"/>
       <c r="C51" s="2" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="D51" s="3"/>
     </row>
@@ -13290,7 +13147,7 @@
         <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="2" ht="17.6" spans="1:6">
@@ -13307,7 +13164,7 @@
         <v>11</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
     </row>
     <row r="3" ht="17.6" spans="1:6">
@@ -13319,7 +13176,7 @@
         <v>8</v>
       </c>
       <c r="E3" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
     </row>
     <row r="4" ht="17.6" spans="1:6">
@@ -13415,7 +13272,7 @@
     <row r="14" ht="17.6" spans="1:6">
       <c r="B14" s="4"/>
       <c r="C14" s="2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D14" s="3">
         <v>2</v>
@@ -13424,7 +13281,7 @@
     <row r="15" ht="17.6" spans="1:6">
       <c r="B15" s="4"/>
       <c r="C15" s="2" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="D15" s="3">
         <v>1</v>
@@ -13514,7 +13371,7 @@
     <row r="25" ht="17.6" spans="2:4">
       <c r="B25" s="4"/>
       <c r="C25" s="2" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D25" s="3">
         <v>1</v>
@@ -13523,7 +13380,7 @@
     <row r="26" ht="17.6" spans="2:4">
       <c r="B26" s="4"/>
       <c r="C26" s="2" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D26" s="3">
         <v>4</v>
@@ -13532,7 +13389,7 @@
     <row r="27" spans="2:4">
       <c r="B27" s="4"/>
       <c r="C27" s="11" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="D27" s="3">
         <v>1</v>
@@ -13541,7 +13398,7 @@
     <row r="28" ht="17.6" spans="2:4">
       <c r="B28" s="4"/>
       <c r="C28" s="2" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D28" s="3">
         <v>1</v>
@@ -13550,7 +13407,7 @@
     <row r="29" ht="17.6" spans="2:4">
       <c r="B29" s="4"/>
       <c r="C29" s="2" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="D29" s="3">
         <v>1</v>
@@ -13559,7 +13416,7 @@
     <row r="30" ht="17.6" spans="2:4">
       <c r="B30" s="4"/>
       <c r="C30" s="2" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D30" s="3">
         <v>1</v>
@@ -13577,7 +13434,7 @@
     <row r="32" spans="2:4">
       <c r="B32" s="4"/>
       <c r="C32" s="11" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D32" s="3">
         <v>1</v>
@@ -13604,7 +13461,7 @@
     <row r="35" ht="17.6" spans="2:4">
       <c r="B35" s="4"/>
       <c r="C35" s="2" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="D35" s="3">
         <v>1</v>
@@ -13613,7 +13470,7 @@
     <row r="36" ht="17.6" spans="2:4">
       <c r="B36" s="4"/>
       <c r="C36" s="2" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="D36" s="3">
         <v>1</v>
@@ -13631,7 +13488,7 @@
     <row r="38" ht="17.6" spans="2:4">
       <c r="B38" s="4"/>
       <c r="C38" s="2" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="D38" s="3">
         <v>1</v>
@@ -13640,7 +13497,7 @@
     <row r="39" ht="17.6" spans="2:4">
       <c r="B39" s="4"/>
       <c r="C39" s="2" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="D39" s="3">
         <v>2</v>
@@ -13691,7 +13548,7 @@
         <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="2" ht="17.6" spans="1:6">
@@ -13706,7 +13563,7 @@
       </c>
       <c r="D2" s="3"/>
       <c r="E2" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
     </row>
     <row r="3" ht="17.6" spans="1:6">
@@ -13796,7 +13653,7 @@
     <row r="15" ht="17.6" spans="1:6">
       <c r="B15" s="4"/>
       <c r="C15" s="2" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="D15" s="3"/>
     </row>
@@ -13810,14 +13667,14 @@
     <row r="17" ht="17.6" spans="2:4">
       <c r="B17" s="4"/>
       <c r="C17" s="2" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="D17" s="3"/>
     </row>
     <row r="18" ht="17.6" spans="2:4">
       <c r="B18" s="4"/>
       <c r="C18" s="2" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
     </row>
   </sheetData>
@@ -13838,7 +13695,7 @@
   <dimension ref="A1:F36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E31" sqref="E31"/>
+      <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14" defaultRowHeight="18" customHeight="1" outlineLevelCol="5"/>
@@ -13866,15 +13723,15 @@
         <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="2" ht="16" spans="1:6">
       <c r="A2" t="s">
         <v>5</v>
       </c>
-      <c r="B2" t="s">
-        <v>6</v>
+      <c r="B2">
+        <v>2025</v>
       </c>
       <c r="C2" t="s">
         <v>93</v>
@@ -13883,7 +13740,7 @@
         <v>5</v>
       </c>
       <c r="E2" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="F2" s="5">
         <v>126</v>
@@ -13891,7 +13748,7 @@
     </row>
     <row r="3" ht="15.2" spans="1:6">
       <c r="C3" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="D3">
         <v>3</v>
@@ -13907,7 +13764,7 @@
     </row>
     <row r="5" ht="15.2" spans="1:6">
       <c r="C5" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D5">
         <v>2</v>
@@ -13915,7 +13772,7 @@
     </row>
     <row r="6" ht="15.2" spans="1:6">
       <c r="C6" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D6">
         <v>1</v>
@@ -13923,7 +13780,7 @@
     </row>
     <row r="7" ht="15.2" spans="1:6">
       <c r="C7" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="D7">
         <v>2</v>
@@ -13931,7 +13788,7 @@
     </row>
     <row r="8" ht="16" spans="1:6">
       <c r="C8" s="6" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="D8">
         <v>4</v>
@@ -13939,7 +13796,7 @@
     </row>
     <row r="9" ht="15.2" spans="1:6">
       <c r="C9" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D9">
         <v>4</v>
@@ -13955,7 +13812,7 @@
     </row>
     <row r="11" ht="15.2" spans="1:6">
       <c r="C11" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="D11">
         <v>1</v>
@@ -13963,7 +13820,7 @@
     </row>
     <row r="12" ht="15.2" spans="1:6">
       <c r="C12" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="D12">
         <v>1</v>
@@ -13971,7 +13828,7 @@
     </row>
     <row r="13" ht="15.2" spans="1:6">
       <c r="C13" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="D13">
         <v>4</v>
@@ -13987,7 +13844,7 @@
     </row>
     <row r="15" ht="15.2" spans="1:6">
       <c r="C15" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="D15">
         <v>1</v>
@@ -14003,7 +13860,7 @@
     </row>
     <row r="17" ht="15.2" spans="3:4">
       <c r="C17" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="D17">
         <v>1</v>
@@ -14131,7 +13988,7 @@
     </row>
     <row r="33" ht="16" spans="3:4">
       <c r="C33" s="7" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="D33">
         <v>2</v>
@@ -14206,7 +14063,7 @@
         <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="2" ht="17.6" spans="1:6">
@@ -14217,11 +14074,11 @@
         <v>82</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D2" s="3"/>
       <c r="E2" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
     </row>
     <row r="3" ht="17.6" spans="1:6">
@@ -14234,14 +14091,14 @@
     <row r="4" ht="17.6" spans="1:6">
       <c r="B4" s="4"/>
       <c r="C4" s="2" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D4" s="3"/>
     </row>
     <row r="5" ht="17.6" spans="1:6">
       <c r="B5" s="4"/>
       <c r="C5" s="2" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="D5" s="3"/>
     </row>
@@ -14276,7 +14133,7 @@
     <row r="10" ht="17.6" spans="1:6">
       <c r="B10" s="4"/>
       <c r="C10" s="2" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="D10" s="3"/>
     </row>
@@ -14290,7 +14147,7 @@
     <row r="12" ht="17.6" spans="1:6">
       <c r="B12" s="4"/>
       <c r="C12" s="2" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="D12" s="3"/>
     </row>
@@ -14304,14 +14161,14 @@
     <row r="14" ht="17.6" spans="1:6">
       <c r="B14" s="4"/>
       <c r="C14" s="2" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="D14" s="3"/>
     </row>
     <row r="15" ht="17.6" spans="1:6">
       <c r="B15" s="4"/>
       <c r="C15" s="2" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="D15" s="3"/>
     </row>
@@ -14402,7 +14259,7 @@
     <row r="28" ht="17.6" spans="2:4">
       <c r="B28" s="4"/>
       <c r="C28" s="2" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="D28" s="3"/>
     </row>

--- a/backend/common/primary_data/沙田区升学数据.xlsx
+++ b/backend/common/primary_data/沙田区升学数据.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="15740" firstSheet="29" activeTab="33"/>
+    <workbookView windowHeight="16080" firstSheet="9" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="保良局王賜豪（田心穀）小學" sheetId="1" r:id="rId1"/>
@@ -65,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1586" uniqueCount="291">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1600" uniqueCount="302">
   <si>
     <t>是否可统计升中数据</t>
   </si>
@@ -613,7 +613,7 @@
     <t>保良局顏寶鈴書院</t>
   </si>
   <si>
-    <t>香港耀中國際學校</t>
+    <t>拔萃女書院</t>
   </si>
   <si>
     <r>
@@ -628,13 +628,447 @@
     </r>
   </si>
   <si>
-    <t>協同國際學校</t>
-  </si>
-  <si>
-    <t>中華基督教會全完中學</t>
-  </si>
-  <si>
-    <t>迦密聖道中學</t>
+    <r>
+      <t>匯</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <charset val="134"/>
+      </rPr>
+      <t>基</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体-简"/>
+        <charset val="134"/>
+      </rPr>
+      <t>書</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <charset val="134"/>
+      </rPr>
+      <t>院(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体-简"/>
+        <charset val="134"/>
+      </rPr>
+      <t>東</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <charset val="134"/>
+      </rPr>
+      <t>九</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体-简"/>
+        <charset val="134"/>
+      </rPr>
+      <t>龍</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <charset val="134"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>香港神</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体-简"/>
+        <charset val="134"/>
+      </rPr>
+      <t>託會</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <charset val="134"/>
+      </rPr>
+      <t>培基</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体-简"/>
+        <charset val="134"/>
+      </rPr>
+      <t>書</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <charset val="134"/>
+      </rPr>
+      <t>院</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>羅</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <charset val="134"/>
+      </rPr>
+      <t>定邦中</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体-简"/>
+        <charset val="134"/>
+      </rPr>
+      <t>學</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>大光德萃</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体-简"/>
+        <charset val="134"/>
+      </rPr>
+      <t>書</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <charset val="134"/>
+      </rPr>
+      <t>院</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>基督教中</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体-简"/>
+        <charset val="134"/>
+      </rPr>
+      <t>國佈</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <charset val="134"/>
+      </rPr>
+      <t>道</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体-简"/>
+        <charset val="134"/>
+      </rPr>
+      <t>會聖</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <charset val="134"/>
+      </rPr>
+      <t>道迦南</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体-简"/>
+        <charset val="134"/>
+      </rPr>
+      <t>書</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <charset val="134"/>
+      </rPr>
+      <t>院</t>
+    </r>
+  </si>
+  <si>
+    <t>s</t>
+  </si>
+  <si>
+    <r>
+      <t>梁文燕</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体-简"/>
+        <charset val="134"/>
+      </rPr>
+      <t>紀</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <charset val="134"/>
+      </rPr>
+      <t>念中</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体-简"/>
+        <charset val="134"/>
+      </rPr>
+      <t>學</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <charset val="134"/>
+      </rPr>
+      <t>(沙田)</t>
+    </r>
+  </si>
+  <si>
+    <t>香港中國婦女會馮堯敬紀念中學</t>
+  </si>
+  <si>
+    <t>五育中學</t>
+  </si>
+  <si>
+    <t>台山商會中學</t>
+  </si>
+  <si>
+    <t>潮州會館中學</t>
+  </si>
+  <si>
+    <r>
+      <t>曾璧山(崇</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体-简"/>
+        <charset val="134"/>
+      </rPr>
+      <t>蘭</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <charset val="134"/>
+      </rPr>
+      <t>)中</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体-简"/>
+        <charset val="134"/>
+      </rPr>
+      <t>學</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>梁式芝</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体-简"/>
+        <charset val="134"/>
+      </rPr>
+      <t>書</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <charset val="134"/>
+      </rPr>
+      <t>院</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>南屯</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体-简"/>
+        <charset val="134"/>
+      </rPr>
+      <t>門</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <charset val="134"/>
+      </rPr>
+      <t>官立中</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体-简"/>
+        <charset val="134"/>
+      </rPr>
+      <t>學</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>中</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体-简"/>
+        <charset val="134"/>
+      </rPr>
+      <t>華</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <charset val="134"/>
+      </rPr>
+      <t>基督教</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体-简"/>
+        <charset val="134"/>
+      </rPr>
+      <t>會譚</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <charset val="134"/>
+      </rPr>
+      <t>李</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体-简"/>
+        <charset val="134"/>
+      </rPr>
+      <t>麗</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <charset val="134"/>
+      </rPr>
+      <t>芬</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体-简"/>
+        <charset val="134"/>
+      </rPr>
+      <t>紀</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <charset val="134"/>
+      </rPr>
+      <t>念中</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体-简"/>
+        <charset val="134"/>
+      </rPr>
+      <t>學</t>
+    </r>
   </si>
   <si>
     <r>
@@ -658,19 +1092,10 @@
     <t>香港神託會培敦中學</t>
   </si>
   <si>
-    <t>香港中國婦女會馮堯敬紀念中學</t>
-  </si>
-  <si>
     <t>曾璧山（崇蘭）中學</t>
   </si>
   <si>
-    <t>潮州會館中學</t>
-  </si>
-  <si>
     <t>https://www.mosmps.edu.hk/tc/p6graduation</t>
-  </si>
-  <si>
-    <t>台山商會中學</t>
   </si>
   <si>
     <t>明愛馬鞍山中學</t>
@@ -1373,9 +1798,6 @@
     </r>
   </si>
   <si>
-    <t>五育中學</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="12"/>
@@ -1843,9 +2265,6 @@
     <t>聖公會莫壽增會督中學</t>
   </si>
   <si>
-    <t>拔萃女書院</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <u/>
@@ -2246,6 +2665,18 @@
   </si>
   <si>
     <t>基督教宣道會宣基中學</t>
+  </si>
+  <si>
+    <t>香港耀中國際學校</t>
+  </si>
+  <si>
+    <t>協同國際學校</t>
+  </si>
+  <si>
+    <t>中華基督教會全完中學</t>
+  </si>
+  <si>
+    <t>迦密聖道中學</t>
   </si>
   <si>
     <r>
@@ -2573,7 +3004,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="31">
+  <fonts count="33">
     <font>
       <sz val="10"/>
       <name val="Microsoft YaHei"/>
@@ -2624,6 +3055,18 @@
     <font>
       <sz val="12"/>
       <name val="Microsoft YaHei"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Microsoft YaHei"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="宋体-简"/>
       <charset val="134"/>
     </font>
     <font>
@@ -3147,28 +3590,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3177,122 +3611,131 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="5" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="5" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3355,6 +3798,21 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -4144,18 +4602,18 @@
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr codeName="九龍城浸信會禧年小學"/>
-  <dimension ref="A1:E20"/>
+  <dimension ref="A1:F34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14" defaultRowHeight="18" customHeight="1" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="14" defaultRowHeight="18" customHeight="1" outlineLevelCol="5"/>
   <cols>
     <col min="3" max="3" width="29.4140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customHeight="1" spans="1:5">
+    <row r="1" customHeight="1" spans="1:6">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4172,132 +4630,301 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" ht="20" customHeight="1" spans="1:5">
+    <row r="2" ht="20" customHeight="1" spans="1:6">
       <c r="A2" t="s">
         <v>45</v>
       </c>
-      <c r="B2" t="s">
-        <v>82</v>
-      </c>
-      <c r="C2" s="2" t="s">
+      <c r="B2" s="21">
+        <v>2025</v>
+      </c>
+      <c r="C2" s="22" t="s">
         <v>105</v>
       </c>
-      <c r="D2" s="3"/>
+      <c r="D2" s="23">
+        <v>1</v>
+      </c>
       <c r="E2" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="3" ht="20" customHeight="1" spans="1:5">
-      <c r="C3" s="2" t="s">
+    <row r="3" ht="20" customHeight="1" spans="1:6">
+      <c r="B3" s="21"/>
+      <c r="C3" s="24" t="s">
         <v>107</v>
       </c>
-      <c r="D3" s="3"/>
-    </row>
-    <row r="4" ht="20" customHeight="1" spans="1:5">
-      <c r="C4" s="2" t="s">
+      <c r="D3" s="23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" ht="20" customHeight="1" spans="1:6">
+      <c r="B4" s="21"/>
+      <c r="C4" s="25" t="s">
+        <v>108</v>
+      </c>
+      <c r="D4" s="23">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" ht="20" customHeight="1" spans="1:6">
+      <c r="B5" s="21"/>
+      <c r="C5" s="24" t="s">
+        <v>109</v>
+      </c>
+      <c r="D5" s="23">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" ht="20" customHeight="1" spans="1:6">
+      <c r="B6" s="21"/>
+      <c r="C6" s="25" t="s">
+        <v>110</v>
+      </c>
+      <c r="D6" s="23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" ht="20" customHeight="1" spans="1:6">
+      <c r="B7" s="21"/>
+      <c r="C7" s="25" t="s">
+        <v>111</v>
+      </c>
+      <c r="D7" s="23">
+        <v>1</v>
+      </c>
+      <c r="F7" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="8" ht="20" customHeight="1" spans="1:6">
+      <c r="B8" s="21"/>
+      <c r="C8" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="D8" s="23">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" ht="20" customHeight="1" spans="1:6">
+      <c r="B9" s="21"/>
+      <c r="C9" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9" s="23">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" ht="20" customHeight="1" spans="1:6">
+      <c r="B10" s="21"/>
+      <c r="C10" s="22" t="s">
+        <v>52</v>
+      </c>
+      <c r="D10" s="23">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" ht="20" customHeight="1" spans="1:6">
+      <c r="B11" s="21"/>
+      <c r="C11" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" s="23">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" ht="20" customHeight="1" spans="1:6">
+      <c r="B12" s="21"/>
+      <c r="C12" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="D12" s="23">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" ht="20" customHeight="1" spans="1:6">
+      <c r="B13" s="21"/>
+      <c r="C13" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="D13" s="23">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" ht="20" customHeight="1" spans="1:6">
+      <c r="B14" s="21"/>
+      <c r="C14" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="D14" s="23">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" ht="20" customHeight="1" spans="1:6">
+      <c r="B15" s="21"/>
+      <c r="C15" s="22" t="s">
+        <v>56</v>
+      </c>
+      <c r="D15" s="23">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" ht="20" customHeight="1" spans="1:6">
+      <c r="B16" s="21"/>
+      <c r="C16" s="22" t="s">
+        <v>50</v>
+      </c>
+      <c r="D16" s="23">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" ht="20" customHeight="1" spans="2:4">
+      <c r="B17" s="21"/>
+      <c r="C17" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="3"/>
-    </row>
-    <row r="5" ht="20" customHeight="1" spans="1:5">
-      <c r="C5" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D5" s="3"/>
-    </row>
-    <row r="6" ht="20" customHeight="1" spans="1:5">
-      <c r="C6" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" s="3"/>
-    </row>
-    <row r="7" ht="20" customHeight="1" spans="1:5">
-      <c r="C7" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D7" s="3"/>
-    </row>
-    <row r="8" ht="20" customHeight="1" spans="1:5">
-      <c r="C8" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D8" s="3"/>
-    </row>
-    <row r="9" ht="20" customHeight="1" spans="1:5">
-      <c r="C9" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="D9" s="3"/>
-    </row>
-    <row r="10" ht="20" customHeight="1" spans="1:5">
-      <c r="C10" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="D10" s="3"/>
-    </row>
-    <row r="11" ht="20" customHeight="1" spans="1:5">
-      <c r="C11" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="D11" s="3"/>
-    </row>
-    <row r="12" ht="20" customHeight="1" spans="1:5">
-      <c r="C12" s="2" t="s">
+      <c r="D17" s="23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" ht="20" customHeight="1" spans="2:4">
+      <c r="B18" s="21"/>
+      <c r="C18" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="D18" s="23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" ht="20" customHeight="1" spans="2:4">
+      <c r="B19" s="21"/>
+      <c r="C19" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="D12" s="3"/>
-    </row>
-    <row r="13" ht="20" customHeight="1" spans="1:5">
-      <c r="C13" s="2" t="s">
+      <c r="D19" s="23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" ht="20" customHeight="1" spans="2:4">
+      <c r="B20" s="21"/>
+      <c r="C20" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="D20" s="23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" customHeight="1" spans="2:4">
+      <c r="C21" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="D21" s="23">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22" customHeight="1" spans="2:4">
+      <c r="C22" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="D13" s="3"/>
-    </row>
-    <row r="14" ht="20" customHeight="1" spans="1:5">
-      <c r="C14" s="2" t="s">
+      <c r="D22" s="23">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" customHeight="1" spans="2:4">
+      <c r="C23" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="D14" s="3"/>
-    </row>
-    <row r="15" ht="20" customHeight="1" spans="1:5">
-      <c r="C15" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="D15" s="3"/>
-    </row>
-    <row r="16" ht="20" customHeight="1" spans="1:5">
-      <c r="C16" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="D16" s="3"/>
-    </row>
-    <row r="17" ht="20" customHeight="1" spans="3:4">
-      <c r="C17" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D17" s="3"/>
-    </row>
-    <row r="18" ht="20" customHeight="1" spans="3:4">
-      <c r="C18" s="2" t="s">
+      <c r="D23" s="23">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" customHeight="1" spans="2:4">
+      <c r="C24" s="22" t="s">
+        <v>58</v>
+      </c>
+      <c r="D24" s="23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" customHeight="1" spans="2:4">
+      <c r="C25" s="25" t="s">
+        <v>113</v>
+      </c>
+      <c r="D25" s="23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" customHeight="1" spans="2:4">
+      <c r="C26" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="D18" s="3"/>
-    </row>
-    <row r="19" ht="20" customHeight="1" spans="3:4">
-      <c r="C19" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="D19" s="3"/>
-    </row>
-    <row r="20" ht="20" customHeight="1" spans="3:4">
-      <c r="C20" s="2" t="s">
-        <v>109</v>
+      <c r="D26" s="23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" customHeight="1" spans="2:4">
+      <c r="C27" s="22" t="s">
+        <v>114</v>
+      </c>
+      <c r="D27" s="23">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28" customHeight="1" spans="2:4">
+      <c r="C28" s="22" t="s">
+        <v>115</v>
+      </c>
+      <c r="D28" s="23">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29" customHeight="1" spans="2:4">
+      <c r="C29" s="22" t="s">
+        <v>116</v>
+      </c>
+      <c r="D29" s="23">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" customHeight="1" spans="2:4">
+      <c r="C30" s="22" t="s">
+        <v>117</v>
+      </c>
+      <c r="D30" s="23">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" customHeight="1" spans="2:4">
+      <c r="C31" s="25" t="s">
+        <v>118</v>
+      </c>
+      <c r="D31" s="23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" customHeight="1" spans="2:4">
+      <c r="C32" s="25" t="s">
+        <v>119</v>
+      </c>
+      <c r="D32" s="23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" customHeight="1" spans="3:4">
+      <c r="C33" s="25" t="s">
+        <v>120</v>
+      </c>
+      <c r="D33" s="23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" customHeight="1" spans="3:4">
+      <c r="C34" s="25" t="s">
+        <v>121</v>
+      </c>
+      <c r="D34" s="23">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="B2:B20"/>
-  </mergeCells>
   <hyperlinks>
     <hyperlink ref="E2" r:id="rId1" display="https://www.hnyp.edu.hk/%E5%8D%87%E4%B8%AD%E8%B3%87%E6%96%992023-2024"/>
   </hyperlinks>
@@ -4349,7 +4976,7 @@
       </c>
       <c r="D2" s="3"/>
       <c r="E2" t="s">
-        <v>110</v>
+        <v>122</v>
       </c>
     </row>
     <row r="3" ht="20" customHeight="1" spans="1:5">
@@ -4402,13 +5029,13 @@
     </row>
     <row r="11" ht="20" customHeight="1" spans="1:5">
       <c r="C11" s="2" t="s">
-        <v>111</v>
+        <v>123</v>
       </c>
       <c r="D11" s="3"/>
     </row>
     <row r="12" ht="20" customHeight="1" spans="1:5">
       <c r="C12" s="2" t="s">
-        <v>112</v>
+        <v>124</v>
       </c>
       <c r="D12" s="3"/>
     </row>
@@ -4420,7 +5047,7 @@
     </row>
     <row r="14" ht="20" customHeight="1" spans="1:5">
       <c r="C14" s="2" t="s">
-        <v>113</v>
+        <v>125</v>
       </c>
       <c r="D14" s="3"/>
     </row>
@@ -4444,13 +5071,13 @@
     </row>
     <row r="18" ht="20" customHeight="1" spans="3:4">
       <c r="C18" s="2" t="s">
-        <v>115</v>
+        <v>126</v>
       </c>
       <c r="D18" s="3"/>
     </row>
     <row r="19" ht="20" customHeight="1" spans="3:4">
       <c r="C19" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D19" s="3"/>
     </row>
@@ -4516,7 +5143,7 @@
         <v>3</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
     </row>
     <row r="3" ht="20" customHeight="1" spans="1:5">
@@ -4529,7 +5156,7 @@
     </row>
     <row r="4" ht="20" customHeight="1" spans="1:5">
       <c r="C4" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D4" s="3">
         <v>1</v>
@@ -4577,7 +5204,7 @@
     </row>
     <row r="10" ht="20" customHeight="1" spans="1:5">
       <c r="C10" s="2" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="D10" s="3">
         <v>1</v>
@@ -4593,7 +5220,7 @@
     </row>
     <row r="12" ht="20" customHeight="1" spans="1:5">
       <c r="C12" s="2" t="s">
-        <v>120</v>
+        <v>129</v>
       </c>
       <c r="D12" s="3">
         <v>4</v>
@@ -4673,7 +5300,7 @@
     </row>
     <row r="22" ht="20" customHeight="1" spans="3:4">
       <c r="C22" s="2" t="s">
-        <v>121</v>
+        <v>130</v>
       </c>
       <c r="D22" s="3">
         <v>3</v>
@@ -4681,7 +5308,7 @@
     </row>
     <row r="23" ht="20" customHeight="1" spans="3:4">
       <c r="C23" s="2" t="s">
-        <v>122</v>
+        <v>131</v>
       </c>
       <c r="D23" s="3">
         <v>1</v>
@@ -4713,7 +5340,7 @@
     </row>
     <row r="27" ht="20" customHeight="1" spans="3:4">
       <c r="C27" s="11" t="s">
-        <v>123</v>
+        <v>132</v>
       </c>
       <c r="D27" s="3">
         <v>1</v>
@@ -4721,7 +5348,7 @@
     </row>
     <row r="28" ht="20" customHeight="1" spans="3:4">
       <c r="C28" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D28" s="3">
         <v>7</v>
@@ -4737,7 +5364,7 @@
     </row>
     <row r="30" ht="20" customHeight="1" spans="3:4">
       <c r="C30" s="2" t="s">
-        <v>124</v>
+        <v>133</v>
       </c>
       <c r="D30" s="3">
         <v>1</v>
@@ -4745,7 +5372,7 @@
     </row>
     <row r="31" ht="20" customHeight="1" spans="3:4">
       <c r="C31" s="2" t="s">
-        <v>125</v>
+        <v>134</v>
       </c>
       <c r="D31" s="3">
         <v>1</v>
@@ -4753,7 +5380,7 @@
     </row>
     <row r="32" ht="20" customHeight="1" spans="3:4">
       <c r="C32" s="2" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
       <c r="D32" s="3">
         <v>1</v>
@@ -4769,7 +5396,7 @@
     </row>
     <row r="34" ht="20" customHeight="1" spans="3:4">
       <c r="C34" s="8" t="s">
-        <v>127</v>
+        <v>136</v>
       </c>
       <c r="D34" s="3">
         <v>2</v>
@@ -4777,7 +5404,7 @@
     </row>
     <row r="35" ht="20" customHeight="1" spans="3:4">
       <c r="C35" s="11" t="s">
-        <v>128</v>
+        <v>137</v>
       </c>
       <c r="D35" s="3">
         <v>1</v>
@@ -4846,7 +5473,7 @@
       </c>
       <c r="D2" s="3"/>
       <c r="E2" t="s">
-        <v>129</v>
+        <v>138</v>
       </c>
     </row>
     <row r="3" ht="20" customHeight="1" spans="1:5">
@@ -4923,19 +5550,19 @@
     </row>
     <row r="15" ht="20" customHeight="1" spans="1:5">
       <c r="C15" s="2" t="s">
-        <v>130</v>
+        <v>139</v>
       </c>
       <c r="D15" s="3"/>
     </row>
     <row r="16" ht="20" customHeight="1" spans="1:5">
       <c r="C16" s="2" t="s">
-        <v>131</v>
+        <v>140</v>
       </c>
       <c r="D16" s="3"/>
     </row>
     <row r="17" ht="20" customHeight="1" spans="3:4">
       <c r="C17" s="2" t="s">
-        <v>132</v>
+        <v>141</v>
       </c>
       <c r="D17" s="3"/>
     </row>
@@ -4947,7 +5574,7 @@
     </row>
     <row r="19" ht="20" customHeight="1" spans="3:4">
       <c r="C19" s="2" t="s">
-        <v>133</v>
+        <v>142</v>
       </c>
       <c r="D19" s="3"/>
     </row>
@@ -5007,13 +5634,13 @@
         <v>2025</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>134</v>
+        <v>143</v>
       </c>
       <c r="D2" s="3">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>135</v>
+        <v>144</v>
       </c>
     </row>
     <row r="3" ht="17.6" spans="1:5">
@@ -5025,7 +5652,7 @@
         <v>3</v>
       </c>
       <c r="E3" t="s">
-        <v>136</v>
+        <v>145</v>
       </c>
     </row>
     <row r="4" ht="17.6" spans="1:5">
@@ -5085,7 +5712,7 @@
     <row r="10" ht="17.6" spans="1:5">
       <c r="B10" s="4"/>
       <c r="C10" s="2" t="s">
-        <v>137</v>
+        <v>146</v>
       </c>
       <c r="D10" s="3">
         <v>1</v>
@@ -5249,7 +5876,7 @@
     <row r="28" ht="17.6" spans="2:4">
       <c r="B28" s="4"/>
       <c r="C28" s="2" t="s">
-        <v>138</v>
+        <v>147</v>
       </c>
       <c r="D28" s="3">
         <v>1</v>
@@ -5258,7 +5885,7 @@
     <row r="29" ht="17.6" spans="2:4">
       <c r="B29" s="4"/>
       <c r="C29" s="2" t="s">
-        <v>139</v>
+        <v>148</v>
       </c>
       <c r="D29" s="3">
         <v>1</v>
@@ -5309,7 +5936,7 @@
         <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>140</v>
+        <v>149</v>
       </c>
     </row>
     <row r="2" ht="17.6" spans="1:6">
@@ -5320,13 +5947,13 @@
         <v>2025</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>141</v>
+        <v>150</v>
       </c>
       <c r="D2" s="3">
         <v>1</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>142</v>
+        <v>151</v>
       </c>
       <c r="F2">
         <v>97</v>
@@ -5341,7 +5968,7 @@
         <v>5</v>
       </c>
       <c r="E3" t="s">
-        <v>143</v>
+        <v>152</v>
       </c>
     </row>
     <row r="4" ht="17.6" spans="1:6">
@@ -5570,11 +6197,11 @@
     <row r="2" ht="17.6" spans="1:5">
       <c r="B2" s="2"/>
       <c r="C2" s="2" t="s">
-        <v>144</v>
+        <v>153</v>
       </c>
       <c r="D2" s="3"/>
       <c r="E2" t="s">
-        <v>145</v>
+        <v>154</v>
       </c>
     </row>
     <row r="3" ht="17.6" spans="1:5">
@@ -5727,7 +6354,7 @@
     <row r="24" ht="17.6" spans="2:4">
       <c r="B24" s="2"/>
       <c r="C24" s="2" t="s">
-        <v>146</v>
+        <v>155</v>
       </c>
     </row>
   </sheetData>
@@ -5770,7 +6397,7 @@
         <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>140</v>
+        <v>149</v>
       </c>
     </row>
     <row r="2" ht="17.6" spans="1:6">
@@ -5798,7 +6425,7 @@
         <v>8</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>147</v>
+        <v>156</v>
       </c>
     </row>
     <row r="4" ht="17.6" spans="1:6">
@@ -5809,7 +6436,7 @@
         <v>6</v>
       </c>
       <c r="E4" t="s">
-        <v>148</v>
+        <v>157</v>
       </c>
     </row>
     <row r="5" ht="17.6" spans="1:6">
@@ -5862,7 +6489,7 @@
     </row>
     <row r="11" ht="17.6" spans="1:6">
       <c r="C11" s="20" t="s">
-        <v>149</v>
+        <v>158</v>
       </c>
       <c r="D11" s="20">
         <v>1</v>
@@ -5878,7 +6505,7 @@
     </row>
     <row r="13" ht="17.6" spans="1:6">
       <c r="C13" s="20" t="s">
-        <v>150</v>
+        <v>159</v>
       </c>
       <c r="D13" s="20">
         <v>1</v>
@@ -5902,7 +6529,7 @@
     </row>
     <row r="16" ht="17.6" spans="1:6">
       <c r="C16" s="20" t="s">
-        <v>151</v>
+        <v>160</v>
       </c>
       <c r="D16" s="20">
         <v>4</v>
@@ -5910,7 +6537,7 @@
     </row>
     <row r="17" ht="17.6" spans="3:4">
       <c r="C17" s="20" t="s">
-        <v>152</v>
+        <v>161</v>
       </c>
       <c r="D17" s="20">
         <v>1</v>
@@ -5926,7 +6553,7 @@
     </row>
     <row r="19" ht="17.6" spans="3:4">
       <c r="C19" s="20" t="s">
-        <v>153</v>
+        <v>162</v>
       </c>
       <c r="D19" s="20">
         <v>1</v>
@@ -5934,7 +6561,7 @@
     </row>
     <row r="20" ht="17.6" spans="3:4">
       <c r="C20" s="20" t="s">
-        <v>134</v>
+        <v>143</v>
       </c>
       <c r="D20" s="20">
         <v>1</v>
@@ -5942,7 +6569,7 @@
     </row>
     <row r="21" ht="17.6" spans="3:4">
       <c r="C21" s="20" t="s">
-        <v>154</v>
+        <v>163</v>
       </c>
       <c r="D21" s="20">
         <v>1</v>
@@ -5950,7 +6577,7 @@
     </row>
     <row r="22" ht="17.6" spans="3:4">
       <c r="C22" s="20" t="s">
-        <v>155</v>
+        <v>164</v>
       </c>
       <c r="D22" s="20">
         <v>1</v>
@@ -5958,7 +6585,7 @@
     </row>
     <row r="23" ht="17.6" spans="3:4">
       <c r="C23" s="20" t="s">
-        <v>156</v>
+        <v>165</v>
       </c>
       <c r="D23" s="20">
         <v>1</v>
@@ -5966,7 +6593,7 @@
     </row>
     <row r="24" ht="17.6" spans="3:4">
       <c r="C24" s="20" t="s">
-        <v>157</v>
+        <v>166</v>
       </c>
       <c r="D24" s="20">
         <v>1</v>
@@ -5974,7 +6601,7 @@
     </row>
     <row r="25" ht="17.6" spans="3:4">
       <c r="C25" s="20" t="s">
-        <v>158</v>
+        <v>167</v>
       </c>
       <c r="D25" s="20">
         <v>1</v>
@@ -6035,7 +6662,7 @@
         <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>140</v>
+        <v>149</v>
       </c>
     </row>
     <row r="2" ht="17.6" spans="1:6">
@@ -6052,7 +6679,7 @@
         <v>10</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>159</v>
+        <v>168</v>
       </c>
       <c r="F2" s="5">
         <v>122</v>
@@ -6067,7 +6694,7 @@
         <v>5</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>160</v>
+        <v>169</v>
       </c>
     </row>
     <row r="4" ht="17.6" spans="1:6">
@@ -6172,7 +6799,7 @@
     <row r="15" spans="1:6">
       <c r="B15" s="4"/>
       <c r="C15" s="2" t="s">
-        <v>161</v>
+        <v>170</v>
       </c>
       <c r="D15" s="3">
         <v>5</v>
@@ -6181,7 +6808,7 @@
     <row r="16" spans="1:6">
       <c r="B16" s="4"/>
       <c r="C16" s="2" t="s">
-        <v>127</v>
+        <v>136</v>
       </c>
       <c r="D16" s="3">
         <v>2</v>
@@ -6190,7 +6817,7 @@
     <row r="17" spans="2:4">
       <c r="B17" s="4"/>
       <c r="C17" s="2" t="s">
-        <v>162</v>
+        <v>171</v>
       </c>
       <c r="D17" s="3">
         <v>1</v>
@@ -6235,7 +6862,7 @@
     <row r="22" spans="2:4">
       <c r="B22" s="4"/>
       <c r="C22" s="2" t="s">
-        <v>163</v>
+        <v>172</v>
       </c>
       <c r="D22" s="3">
         <v>2</v>
@@ -6253,7 +6880,7 @@
     <row r="24" spans="2:4">
       <c r="B24" s="4"/>
       <c r="C24" s="11" t="s">
-        <v>164</v>
+        <v>173</v>
       </c>
       <c r="D24" s="3">
         <v>1</v>
@@ -6262,7 +6889,7 @@
     <row r="25" spans="2:4">
       <c r="B25" s="4"/>
       <c r="C25" s="2" t="s">
-        <v>165</v>
+        <v>174</v>
       </c>
       <c r="D25" s="3">
         <v>1</v>
@@ -6280,7 +6907,7 @@
     <row r="27" ht="17.6" spans="2:4">
       <c r="B27" s="4"/>
       <c r="C27" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D27" s="3">
         <v>1</v>
@@ -6289,7 +6916,7 @@
     <row r="28" spans="2:4">
       <c r="B28" s="4"/>
       <c r="C28" s="11" t="s">
-        <v>166</v>
+        <v>175</v>
       </c>
       <c r="D28" s="3">
         <v>1</v>
@@ -6298,7 +6925,7 @@
     <row r="29" ht="17.6" spans="2:4">
       <c r="B29" s="4"/>
       <c r="C29" s="2" t="s">
-        <v>120</v>
+        <v>129</v>
       </c>
       <c r="D29" s="3">
         <v>6</v>
@@ -6307,7 +6934,7 @@
     <row r="30" ht="17.6" spans="2:4">
       <c r="B30" s="4"/>
       <c r="C30" s="2" t="s">
-        <v>167</v>
+        <v>115</v>
       </c>
       <c r="D30" s="3">
         <v>8</v>
@@ -6316,7 +6943,7 @@
     <row r="31" spans="2:4">
       <c r="B31" s="4"/>
       <c r="C31" s="11" t="s">
-        <v>168</v>
+        <v>176</v>
       </c>
       <c r="D31" s="3">
         <v>1</v>
@@ -6325,7 +6952,7 @@
     <row r="32" spans="2:4">
       <c r="B32" s="4"/>
       <c r="C32" s="11" t="s">
-        <v>169</v>
+        <v>177</v>
       </c>
       <c r="D32" s="3">
         <v>1</v>
@@ -6334,7 +6961,7 @@
     <row r="33" spans="2:6">
       <c r="B33" s="4"/>
       <c r="C33" s="11" t="s">
-        <v>170</v>
+        <v>178</v>
       </c>
       <c r="D33" s="3">
         <v>1</v>
@@ -6343,7 +6970,7 @@
     <row r="34" spans="2:6">
       <c r="B34" s="4"/>
       <c r="C34" s="11" t="s">
-        <v>171</v>
+        <v>179</v>
       </c>
       <c r="D34" s="3">
         <v>1</v>
@@ -6352,7 +6979,7 @@
     <row r="35" spans="2:6">
       <c r="B35" s="4"/>
       <c r="C35" s="2" t="s">
-        <v>172</v>
+        <v>180</v>
       </c>
       <c r="D35" s="3">
         <v>1</v>
@@ -6361,7 +6988,7 @@
     <row r="36" ht="17.6" spans="2:6">
       <c r="B36" s="4"/>
       <c r="C36" s="2" t="s">
-        <v>173</v>
+        <v>181</v>
       </c>
       <c r="D36" s="3">
         <v>1</v>
@@ -6379,7 +7006,7 @@
     <row r="38" ht="17.6" spans="2:6">
       <c r="B38" s="4"/>
       <c r="C38" s="2" t="s">
-        <v>174</v>
+        <v>182</v>
       </c>
       <c r="D38" s="3">
         <v>1</v>
@@ -6388,7 +7015,7 @@
     <row r="39" ht="17.6" spans="2:6">
       <c r="B39" s="4"/>
       <c r="C39" s="2" t="s">
-        <v>175</v>
+        <v>183</v>
       </c>
       <c r="D39" s="3">
         <v>1</v>
@@ -6397,7 +7024,7 @@
     <row r="40" ht="17.6" spans="2:6">
       <c r="B40" s="4"/>
       <c r="C40" s="2" t="s">
-        <v>111</v>
+        <v>123</v>
       </c>
       <c r="D40" s="3">
         <v>1</v>
@@ -6406,7 +7033,7 @@
     <row r="41" ht="17.6" spans="2:6">
       <c r="B41" s="4"/>
       <c r="C41" s="2" t="s">
-        <v>176</v>
+        <v>184</v>
       </c>
       <c r="D41" s="3">
         <v>1</v>
@@ -6537,7 +7164,7 @@
     <row r="55" spans="2:4">
       <c r="B55" s="4"/>
       <c r="C55" s="2" t="s">
-        <v>162</v>
+        <v>171</v>
       </c>
       <c r="D55" s="3">
         <v>1</v>
@@ -6546,7 +7173,7 @@
     <row r="56" spans="2:4">
       <c r="B56" s="4"/>
       <c r="C56" s="2" t="s">
-        <v>161</v>
+        <v>170</v>
       </c>
       <c r="D56" s="3">
         <v>3</v>
@@ -6555,7 +7182,7 @@
     <row r="57" ht="17.6" spans="2:4">
       <c r="B57" s="4"/>
       <c r="C57" s="2" t="s">
-        <v>177</v>
+        <v>185</v>
       </c>
       <c r="D57" s="3">
         <v>1</v>
@@ -6564,7 +7191,7 @@
     <row r="58" spans="2:4">
       <c r="B58" s="4"/>
       <c r="C58" s="2" t="s">
-        <v>127</v>
+        <v>136</v>
       </c>
       <c r="D58" s="3">
         <v>1</v>
@@ -6591,7 +7218,7 @@
     <row r="61" ht="17.6" spans="2:4">
       <c r="B61" s="4"/>
       <c r="C61" s="2" t="s">
-        <v>178</v>
+        <v>186</v>
       </c>
       <c r="D61" s="3">
         <v>3</v>
@@ -6618,7 +7245,7 @@
     <row r="64" spans="2:4">
       <c r="B64" s="4"/>
       <c r="C64" s="2" t="s">
-        <v>165</v>
+        <v>174</v>
       </c>
       <c r="D64" s="3">
         <v>2</v>
@@ -6663,7 +7290,7 @@
     <row r="69" ht="17.6" spans="2:4">
       <c r="B69" s="4"/>
       <c r="C69" s="2" t="s">
-        <v>179</v>
+        <v>187</v>
       </c>
       <c r="D69" s="3">
         <v>1</v>
@@ -6672,7 +7299,7 @@
     <row r="70" ht="17.6" spans="2:4">
       <c r="B70" s="4"/>
       <c r="C70" s="2" t="s">
-        <v>120</v>
+        <v>129</v>
       </c>
       <c r="D70" s="3">
         <v>10</v>
@@ -6681,7 +7308,7 @@
     <row r="71" spans="2:4">
       <c r="B71" s="4"/>
       <c r="C71" s="2" t="s">
-        <v>180</v>
+        <v>188</v>
       </c>
       <c r="D71" s="3">
         <v>1</v>
@@ -6690,7 +7317,7 @@
     <row r="72" ht="17.6" spans="2:4">
       <c r="B72" s="4"/>
       <c r="C72" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D72" s="3">
         <v>1</v>
@@ -6699,7 +7326,7 @@
     <row r="73" ht="17.6" spans="2:4">
       <c r="B73" s="4"/>
       <c r="C73" s="2" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="D73" s="3">
         <v>1</v>
@@ -6717,7 +7344,7 @@
     <row r="75" ht="17.6" spans="2:4">
       <c r="B75" s="4"/>
       <c r="C75" s="2" t="s">
-        <v>181</v>
+        <v>189</v>
       </c>
       <c r="D75" s="3">
         <v>1</v>
@@ -6726,7 +7353,7 @@
     <row r="76" spans="2:4">
       <c r="B76" s="4"/>
       <c r="C76" s="11" t="s">
-        <v>168</v>
+        <v>176</v>
       </c>
       <c r="D76" s="3">
         <v>2</v>
@@ -6735,7 +7362,7 @@
     <row r="77" spans="2:4">
       <c r="B77" s="4"/>
       <c r="C77" s="11" t="s">
-        <v>182</v>
+        <v>190</v>
       </c>
       <c r="D77" s="3">
         <v>1</v>
@@ -6762,7 +7389,7 @@
     <row r="80" spans="2:4">
       <c r="B80" s="4"/>
       <c r="C80" s="2" t="s">
-        <v>183</v>
+        <v>191</v>
       </c>
       <c r="D80" s="3">
         <v>1</v>
@@ -6771,7 +7398,7 @@
     <row r="81" spans="2:4">
       <c r="B81" s="4"/>
       <c r="C81" s="11" t="s">
-        <v>184</v>
+        <v>192</v>
       </c>
       <c r="D81" s="3">
         <v>1</v>
@@ -6780,7 +7407,7 @@
     <row r="82" spans="2:4">
       <c r="B82" s="4"/>
       <c r="C82" s="2" t="s">
-        <v>185</v>
+        <v>193</v>
       </c>
       <c r="D82" s="3">
         <v>1</v>
@@ -6789,7 +7416,7 @@
     <row r="83" ht="17.6" spans="2:4">
       <c r="B83" s="4"/>
       <c r="C83" s="11" t="s">
-        <v>186</v>
+        <v>194</v>
       </c>
       <c r="D83" s="3">
         <v>1</v>
@@ -6798,7 +7425,7 @@
     <row r="84" ht="17.6" spans="2:4">
       <c r="B84" s="4"/>
       <c r="C84" s="2" t="s">
-        <v>187</v>
+        <v>195</v>
       </c>
       <c r="D84" s="3">
         <v>1</v>
@@ -6807,7 +7434,7 @@
     <row r="85" ht="17.6" spans="2:4">
       <c r="B85" s="4"/>
       <c r="C85" s="2" t="s">
-        <v>111</v>
+        <v>123</v>
       </c>
       <c r="D85" s="3">
         <v>1</v>
@@ -6816,7 +7443,7 @@
     <row r="86" ht="17.6" spans="2:4">
       <c r="B86" s="4"/>
       <c r="C86" s="2" t="s">
-        <v>188</v>
+        <v>196</v>
       </c>
       <c r="D86" s="3">
         <v>2</v>
@@ -6825,7 +7452,7 @@
     <row r="87" ht="17.6" spans="2:4">
       <c r="B87" s="4"/>
       <c r="C87" s="2" t="s">
-        <v>189</v>
+        <v>197</v>
       </c>
       <c r="D87" s="3">
         <v>1</v>
@@ -6878,7 +7505,7 @@
         <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>140</v>
+        <v>149</v>
       </c>
     </row>
     <row r="2" ht="20" customHeight="1" spans="1:6">
@@ -6893,13 +7520,13 @@
       </c>
       <c r="D2" s="3"/>
       <c r="E2" t="s">
-        <v>190</v>
+        <v>198</v>
       </c>
     </row>
     <row r="3" ht="20" customHeight="1" spans="1:6">
       <c r="B3" s="4"/>
       <c r="C3" s="2" t="s">
-        <v>191</v>
+        <v>199</v>
       </c>
       <c r="D3" s="3"/>
     </row>
@@ -6927,7 +7554,7 @@
     <row r="7" ht="20" customHeight="1" spans="1:6">
       <c r="B7" s="4"/>
       <c r="C7" s="2" t="s">
-        <v>192</v>
+        <v>200</v>
       </c>
       <c r="D7" s="3"/>
     </row>
@@ -7222,7 +7849,7 @@
         <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>140</v>
+        <v>149</v>
       </c>
     </row>
     <row r="2" ht="17.6" spans="1:6">
@@ -7234,7 +7861,7 @@
       </c>
       <c r="D2" s="3"/>
       <c r="E2" t="s">
-        <v>193</v>
+        <v>201</v>
       </c>
     </row>
     <row r="3" ht="17.6" spans="1:6">
@@ -7261,7 +7888,7 @@
     <row r="6" ht="17.6" spans="1:6">
       <c r="B6" s="4"/>
       <c r="C6" s="2" t="s">
-        <v>194</v>
+        <v>202</v>
       </c>
       <c r="D6" s="3"/>
     </row>
@@ -7338,12 +7965,12 @@
     <row r="17" ht="17.6" spans="2:4">
       <c r="B17" s="4"/>
       <c r="C17" s="2" t="s">
-        <v>120</v>
+        <v>129</v>
       </c>
     </row>
     <row r="18" ht="17.6" spans="2:4">
       <c r="B18" s="2" t="s">
-        <v>195</v>
+        <v>203</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>52</v>
@@ -7402,7 +8029,7 @@
     <row r="26" ht="17.6" spans="2:4">
       <c r="B26" s="4"/>
       <c r="C26" s="2" t="s">
-        <v>196</v>
+        <v>204</v>
       </c>
       <c r="D26" s="3"/>
     </row>
@@ -7458,14 +8085,14 @@
     <row r="34" ht="17.6" spans="2:4">
       <c r="B34" s="4"/>
       <c r="C34" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D34" s="3"/>
     </row>
     <row r="35" ht="17.6" spans="2:4">
       <c r="B35" s="4"/>
       <c r="C35" s="2" t="s">
-        <v>167</v>
+        <v>115</v>
       </c>
       <c r="D35" s="3"/>
     </row>
@@ -7479,7 +8106,7 @@
     <row r="37" ht="17.6" spans="2:4">
       <c r="B37" s="4"/>
       <c r="C37" s="2" t="s">
-        <v>197</v>
+        <v>205</v>
       </c>
     </row>
   </sheetData>
@@ -7526,7 +8153,7 @@
         <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>140</v>
+        <v>149</v>
       </c>
     </row>
     <row r="2" ht="17.6" spans="1:6">
@@ -7537,7 +8164,7 @@
         <v>2025</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>152</v>
+        <v>161</v>
       </c>
       <c r="D2" s="3">
         <v>1</v>
@@ -7556,7 +8183,7 @@
         <v>10</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>198</v>
+        <v>206</v>
       </c>
     </row>
     <row r="4" ht="17.6" spans="1:6">
@@ -7672,7 +8299,7 @@
     <row r="15" ht="17.6" spans="1:6">
       <c r="B15" s="4"/>
       <c r="C15" s="2" t="s">
-        <v>130</v>
+        <v>139</v>
       </c>
       <c r="D15" s="3">
         <v>1</v>
@@ -7753,7 +8380,7 @@
         <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>140</v>
+        <v>149</v>
       </c>
     </row>
     <row r="2" ht="20" customHeight="1" spans="1:6">
@@ -7770,7 +8397,7 @@
         <v>7</v>
       </c>
       <c r="E2" t="s">
-        <v>199</v>
+        <v>207</v>
       </c>
       <c r="F2" s="5">
         <v>122</v>
@@ -7914,7 +8541,7 @@
     <row r="18" ht="20" customHeight="1" spans="2:4">
       <c r="B18" s="4"/>
       <c r="C18" s="11" t="s">
-        <v>128</v>
+        <v>137</v>
       </c>
       <c r="D18" s="3">
         <v>1</v>
@@ -7923,7 +8550,7 @@
     <row r="19" ht="20" customHeight="1" spans="2:4">
       <c r="B19" s="4"/>
       <c r="C19" s="2" t="s">
-        <v>200</v>
+        <v>208</v>
       </c>
       <c r="D19" s="3">
         <v>1</v>
@@ -7941,7 +8568,7 @@
     <row r="21" ht="20" customHeight="1" spans="2:4">
       <c r="B21" s="4"/>
       <c r="C21" s="2" t="s">
-        <v>137</v>
+        <v>146</v>
       </c>
       <c r="D21" s="3">
         <v>1</v>
@@ -8005,7 +8632,7 @@
         <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>140</v>
+        <v>149</v>
       </c>
     </row>
     <row r="2" ht="17.6" spans="1:6">
@@ -8016,19 +8643,19 @@
         <v>2025</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>201</v>
+        <v>105</v>
       </c>
       <c r="D2" s="3">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>202</v>
+        <v>209</v>
       </c>
     </row>
     <row r="3" ht="17.6" spans="1:6">
       <c r="B3" s="4"/>
       <c r="C3" s="2" t="s">
-        <v>191</v>
+        <v>199</v>
       </c>
       <c r="D3" s="3">
         <v>1</v>
@@ -8046,7 +8673,7 @@
     <row r="5" ht="17.6" spans="1:6">
       <c r="B5" s="4"/>
       <c r="C5" s="2" t="s">
-        <v>151</v>
+        <v>160</v>
       </c>
       <c r="D5" s="3">
         <v>1</v>
@@ -8055,7 +8682,7 @@
     <row r="6" ht="17.6" spans="1:6">
       <c r="B6" s="4"/>
       <c r="C6" s="2" t="s">
-        <v>203</v>
+        <v>210</v>
       </c>
       <c r="D6" s="3">
         <v>1</v>
@@ -8271,7 +8898,7 @@
     <row r="30" spans="2:4">
       <c r="B30" s="4"/>
       <c r="C30" s="2" t="s">
-        <v>121</v>
+        <v>130</v>
       </c>
       <c r="D30" s="3">
         <v>3</v>
@@ -8298,7 +8925,7 @@
     <row r="33" ht="17.6" spans="2:4">
       <c r="B33" s="4"/>
       <c r="C33" s="2" t="s">
-        <v>167</v>
+        <v>115</v>
       </c>
       <c r="D33" s="3">
         <v>2</v>
@@ -8356,7 +8983,7 @@
         <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>140</v>
+        <v>149</v>
       </c>
     </row>
     <row r="2" ht="17.6" spans="1:6">
@@ -8373,7 +9000,7 @@
         <v>12</v>
       </c>
       <c r="E2" t="s">
-        <v>204</v>
+        <v>211</v>
       </c>
       <c r="F2" s="5">
         <v>121</v>
@@ -8445,7 +9072,7 @@
     <row r="10" ht="17.6" spans="1:6">
       <c r="B10" s="4"/>
       <c r="C10" s="2" t="s">
-        <v>205</v>
+        <v>212</v>
       </c>
       <c r="D10" s="3">
         <v>1</v>
@@ -8499,7 +9126,7 @@
     <row r="16" spans="1:6">
       <c r="B16" s="4"/>
       <c r="C16" s="2" t="s">
-        <v>206</v>
+        <v>213</v>
       </c>
       <c r="D16" s="3">
         <v>6</v>
@@ -8585,7 +9212,7 @@
         <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>140</v>
+        <v>149</v>
       </c>
     </row>
     <row r="2" ht="17.6" spans="1:6">
@@ -8602,7 +9229,7 @@
         <v>3</v>
       </c>
       <c r="E2" t="s">
-        <v>207</v>
+        <v>214</v>
       </c>
     </row>
     <row r="3" ht="17.6" spans="1:6">
@@ -8842,7 +9469,7 @@
     <row r="29" ht="17.6" spans="2:4">
       <c r="B29" s="4"/>
       <c r="C29" s="2" t="s">
-        <v>208</v>
+        <v>215</v>
       </c>
       <c r="D29" s="3">
         <v>1</v>
@@ -8851,7 +9478,7 @@
     <row r="30" ht="17.6" spans="2:4">
       <c r="B30" s="4"/>
       <c r="C30" s="2" t="s">
-        <v>209</v>
+        <v>216</v>
       </c>
       <c r="D30" s="3">
         <v>1</v>
@@ -8860,7 +9487,7 @@
     <row r="31" ht="17.6" spans="2:4">
       <c r="B31" s="4"/>
       <c r="C31" s="2" t="s">
-        <v>210</v>
+        <v>217</v>
       </c>
       <c r="D31" s="3">
         <v>1</v>
@@ -8909,7 +9536,7 @@
         <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>140</v>
+        <v>149</v>
       </c>
     </row>
     <row r="2" ht="17.6" spans="1:6">
@@ -8920,13 +9547,13 @@
         <v>2025</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>134</v>
+        <v>143</v>
       </c>
       <c r="D2" s="3">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>211</v>
+        <v>218</v>
       </c>
       <c r="F2" s="5">
         <v>126</v>
@@ -9043,7 +9670,7 @@
     <row r="15" ht="17.6" spans="1:6">
       <c r="B15" s="4"/>
       <c r="C15" s="2" t="s">
-        <v>212</v>
+        <v>219</v>
       </c>
       <c r="D15" s="3">
         <v>1</v>
@@ -9088,7 +9715,7 @@
     <row r="20" ht="17.6" spans="2:4">
       <c r="B20" s="4"/>
       <c r="C20" s="2" t="s">
-        <v>213</v>
+        <v>220</v>
       </c>
       <c r="D20" s="3">
         <v>1</v>
@@ -9169,7 +9796,7 @@
     <row r="29" ht="17.6" spans="2:4">
       <c r="B29" s="4"/>
       <c r="C29" s="2" t="s">
-        <v>214</v>
+        <v>221</v>
       </c>
       <c r="D29" s="3">
         <v>1</v>
@@ -9219,7 +9846,7 @@
         <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>140</v>
+        <v>149</v>
       </c>
     </row>
     <row r="2" ht="19" customHeight="1" spans="1:6">
@@ -9233,7 +9860,7 @@
         <v>7</v>
       </c>
       <c r="E2" t="s">
-        <v>215</v>
+        <v>222</v>
       </c>
     </row>
     <row r="3" ht="15.2" spans="1:6">
@@ -9278,7 +9905,7 @@
     </row>
     <row r="11" ht="15.2" spans="1:6">
       <c r="C11" t="s">
-        <v>216</v>
+        <v>223</v>
       </c>
     </row>
     <row r="12" ht="15.2" spans="1:6">
@@ -9338,7 +9965,7 @@
     </row>
     <row r="23" ht="15.2" spans="3:3">
       <c r="C23" t="s">
-        <v>167</v>
+        <v>115</v>
       </c>
     </row>
     <row r="24" ht="15.2" spans="3:3">
@@ -9363,17 +9990,17 @@
     </row>
     <row r="28" ht="15.2" spans="3:3">
       <c r="C28" t="s">
-        <v>179</v>
+        <v>187</v>
       </c>
     </row>
     <row r="29" ht="15.2" spans="3:3">
       <c r="C29" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="30" ht="15.2" spans="3:3">
       <c r="C30" t="s">
-        <v>120</v>
+        <v>129</v>
       </c>
     </row>
     <row r="31" ht="15.2" spans="3:3">
@@ -9425,7 +10052,7 @@
         <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>140</v>
+        <v>149</v>
       </c>
     </row>
     <row r="2" ht="17.6" spans="1:6">
@@ -9436,13 +10063,13 @@
         <v>82</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>134</v>
+        <v>143</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>217</v>
+        <v>224</v>
       </c>
       <c r="E2" t="s">
-        <v>218</v>
+        <v>225</v>
       </c>
     </row>
     <row r="3" ht="17.6" spans="1:6">
@@ -9520,7 +10147,7 @@
     <row r="15" ht="17.6" spans="1:6">
       <c r="B15" s="4"/>
       <c r="C15" s="2" t="s">
-        <v>130</v>
+        <v>139</v>
       </c>
     </row>
     <row r="16" ht="17.6" spans="1:6">
@@ -9586,13 +10213,13 @@
     <row r="26" ht="17.6" spans="2:3">
       <c r="B26" s="4"/>
       <c r="C26" s="2" t="s">
-        <v>219</v>
+        <v>226</v>
       </c>
     </row>
     <row r="27" ht="17.6" spans="2:3">
       <c r="B27" s="4"/>
       <c r="C27" s="2" t="s">
-        <v>220</v>
+        <v>227</v>
       </c>
     </row>
     <row r="28" ht="17.6" spans="2:3">
@@ -9645,7 +10272,7 @@
         <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>140</v>
+        <v>149</v>
       </c>
     </row>
     <row r="2" ht="17.6" spans="1:6">
@@ -9662,7 +10289,7 @@
         <v>24</v>
       </c>
       <c r="E2" t="s">
-        <v>221</v>
+        <v>228</v>
       </c>
     </row>
     <row r="3" ht="17.6" spans="1:6">
@@ -9866,7 +10493,7 @@
     <row r="25" spans="2:4">
       <c r="B25" s="4"/>
       <c r="C25" s="2" t="s">
-        <v>121</v>
+        <v>130</v>
       </c>
       <c r="D25" s="3">
         <v>3</v>
@@ -9902,7 +10529,7 @@
     <row r="29" spans="2:4">
       <c r="B29" s="4"/>
       <c r="C29" s="11" t="s">
-        <v>128</v>
+        <v>137</v>
       </c>
       <c r="D29" s="3">
         <v>1</v>
@@ -10159,7 +10786,7 @@
         <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>140</v>
+        <v>149</v>
       </c>
     </row>
     <row r="2" ht="17.6" spans="1:6">
@@ -10176,7 +10803,7 @@
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>222</v>
+        <v>229</v>
       </c>
       <c r="F2" s="13">
         <v>118</v>
@@ -10215,7 +10842,7 @@
     <row r="6" spans="1:6">
       <c r="B6" s="1"/>
       <c r="C6" s="2" t="s">
-        <v>161</v>
+        <v>170</v>
       </c>
       <c r="D6" s="3">
         <v>1</v>
@@ -10275,7 +10902,7 @@
     <row r="12" ht="17.6" spans="1:6">
       <c r="B12" s="1"/>
       <c r="C12" s="2" t="s">
-        <v>120</v>
+        <v>129</v>
       </c>
       <c r="D12" s="3">
         <v>6</v>
@@ -10285,7 +10912,7 @@
     <row r="13" ht="17.6" spans="1:6">
       <c r="B13" s="1"/>
       <c r="C13" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D13" s="3">
         <v>2</v>
@@ -10325,7 +10952,7 @@
     <row r="17" ht="17.6" spans="2:6">
       <c r="B17" s="1"/>
       <c r="C17" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D17" s="3">
         <v>1</v>
@@ -10335,7 +10962,7 @@
     <row r="18" spans="2:6">
       <c r="B18" s="1"/>
       <c r="C18" s="8" t="s">
-        <v>223</v>
+        <v>230</v>
       </c>
       <c r="D18" s="3">
         <v>1</v>
@@ -10345,7 +10972,7 @@
     <row r="19" ht="17.6" spans="2:6">
       <c r="B19" s="1"/>
       <c r="C19" s="2" t="s">
-        <v>224</v>
+        <v>231</v>
       </c>
       <c r="D19" s="3">
         <v>1</v>
@@ -10365,7 +10992,7 @@
     <row r="21" ht="17.6" spans="2:6">
       <c r="B21" s="1"/>
       <c r="C21" s="2" t="s">
-        <v>225</v>
+        <v>232</v>
       </c>
       <c r="D21" s="3">
         <v>1</v>
@@ -10375,7 +11002,7 @@
     <row r="22" ht="17.6" spans="2:6">
       <c r="B22" s="1"/>
       <c r="C22" s="2" t="s">
-        <v>226</v>
+        <v>233</v>
       </c>
       <c r="D22" s="3">
         <v>1</v>
@@ -10385,7 +11012,7 @@
     <row r="23" ht="17.6" spans="2:6">
       <c r="B23" s="1"/>
       <c r="C23" s="2" t="s">
-        <v>227</v>
+        <v>234</v>
       </c>
       <c r="D23" s="3">
         <v>1</v>
@@ -10475,7 +11102,7 @@
     <row r="32" ht="17.6" spans="2:6">
       <c r="B32" s="1"/>
       <c r="C32" s="2" t="s">
-        <v>167</v>
+        <v>115</v>
       </c>
       <c r="D32" s="3">
         <v>8</v>
@@ -10525,7 +11152,7 @@
     <row r="37" ht="17.6" spans="2:6">
       <c r="B37" s="1"/>
       <c r="C37" s="2" t="s">
-        <v>115</v>
+        <v>126</v>
       </c>
       <c r="D37" s="3">
         <v>6</v>
@@ -10535,7 +11162,7 @@
     <row r="38" ht="17.6" spans="2:6">
       <c r="B38" s="1"/>
       <c r="C38" s="2" t="s">
-        <v>181</v>
+        <v>189</v>
       </c>
       <c r="D38" s="3">
         <v>1</v>
@@ -10545,7 +11172,7 @@
     <row r="39" ht="17.6" spans="2:6">
       <c r="B39" s="1"/>
       <c r="C39" s="2" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="D39" s="3">
         <v>3</v>
@@ -10565,7 +11192,7 @@
     <row r="41" ht="17.6" spans="2:6">
       <c r="B41" s="1"/>
       <c r="C41" s="2" t="s">
-        <v>228</v>
+        <v>235</v>
       </c>
       <c r="D41" s="3">
         <v>2</v>
@@ -10575,7 +11202,7 @@
     <row r="42" ht="17.6" spans="2:6">
       <c r="B42" s="1"/>
       <c r="C42" s="2" t="s">
-        <v>139</v>
+        <v>148</v>
       </c>
       <c r="D42" s="3">
         <v>1</v>
@@ -10585,7 +11212,7 @@
     <row r="43" ht="17.6" spans="2:6">
       <c r="B43" s="1"/>
       <c r="C43" s="2" t="s">
-        <v>175</v>
+        <v>183</v>
       </c>
       <c r="D43" s="3">
         <v>1</v>
@@ -10595,7 +11222,7 @@
     <row r="44" ht="17.6" spans="2:6">
       <c r="B44" s="1"/>
       <c r="C44" s="2" t="s">
-        <v>229</v>
+        <v>236</v>
       </c>
       <c r="D44" s="3">
         <v>1</v>
@@ -10605,7 +11232,7 @@
     <row r="45" ht="17.6" spans="2:6">
       <c r="B45" s="1"/>
       <c r="C45" s="2" t="s">
-        <v>230</v>
+        <v>237</v>
       </c>
       <c r="D45" s="3">
         <v>1</v>
@@ -10711,7 +11338,7 @@
     <row r="55" ht="17.6" spans="2:6">
       <c r="B55" s="1"/>
       <c r="C55" s="2" t="s">
-        <v>120</v>
+        <v>129</v>
       </c>
       <c r="D55" s="3">
         <v>4</v>
@@ -10721,7 +11348,7 @@
     <row r="56" ht="17.6" spans="2:6">
       <c r="B56" s="1"/>
       <c r="C56" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D56" s="3">
         <v>6</v>
@@ -10751,7 +11378,7 @@
     <row r="59" ht="17.6" spans="2:6">
       <c r="B59" s="1"/>
       <c r="C59" s="2" t="s">
-        <v>115</v>
+        <v>126</v>
       </c>
       <c r="D59" s="3">
         <v>4</v>
@@ -10761,7 +11388,7 @@
     <row r="60" ht="17.6" spans="2:6">
       <c r="B60" s="1"/>
       <c r="C60" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D60" s="3">
         <v>1</v>
@@ -10771,7 +11398,7 @@
     <row r="61" ht="17.6" spans="2:6">
       <c r="B61" s="1"/>
       <c r="C61" s="2" t="s">
-        <v>231</v>
+        <v>238</v>
       </c>
       <c r="D61" s="3">
         <v>1</v>
@@ -10781,7 +11408,7 @@
     <row r="62" ht="17.6" spans="2:6">
       <c r="B62" s="1"/>
       <c r="C62" s="2" t="s">
-        <v>232</v>
+        <v>239</v>
       </c>
       <c r="D62" s="3">
         <v>1</v>
@@ -10791,7 +11418,7 @@
     <row r="63" ht="17.6" spans="2:6">
       <c r="B63" s="1"/>
       <c r="C63" s="2" t="s">
-        <v>111</v>
+        <v>123</v>
       </c>
       <c r="D63" s="3">
         <v>1</v>
@@ -10801,7 +11428,7 @@
     <row r="64" spans="2:6">
       <c r="B64" s="1"/>
       <c r="C64" s="2" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="D64" s="3">
         <v>1</v>
@@ -10811,7 +11438,7 @@
     <row r="65" ht="17.6" spans="2:6">
       <c r="B65" s="1"/>
       <c r="C65" s="2" t="s">
-        <v>234</v>
+        <v>241</v>
       </c>
       <c r="D65" s="3">
         <v>1</v>
@@ -10821,7 +11448,7 @@
     <row r="66" ht="17.6" spans="2:6">
       <c r="B66" s="1"/>
       <c r="C66" s="2" t="s">
-        <v>235</v>
+        <v>242</v>
       </c>
       <c r="D66" s="3">
         <v>1</v>
@@ -10861,7 +11488,7 @@
     <row r="70" spans="2:6">
       <c r="B70" s="1"/>
       <c r="C70" s="2" t="s">
-        <v>127</v>
+        <v>136</v>
       </c>
       <c r="D70" s="3">
         <v>1</v>
@@ -10891,7 +11518,7 @@
     <row r="73" spans="2:6">
       <c r="B73" s="1"/>
       <c r="C73" s="2" t="s">
-        <v>165</v>
+        <v>174</v>
       </c>
       <c r="D73" s="3">
         <v>1</v>
@@ -10901,7 +11528,7 @@
     <row r="74" ht="17.6" spans="2:6">
       <c r="B74" s="1"/>
       <c r="C74" s="2" t="s">
-        <v>167</v>
+        <v>115</v>
       </c>
       <c r="D74" s="3">
         <v>7</v>
@@ -10971,7 +11598,7 @@
     <row r="81" ht="17.6" spans="2:6">
       <c r="B81" s="1"/>
       <c r="C81" s="2" t="s">
-        <v>181</v>
+        <v>189</v>
       </c>
       <c r="D81" s="3">
         <v>3</v>
@@ -10981,7 +11608,7 @@
     <row r="82" ht="17.6" spans="2:6">
       <c r="B82" s="1"/>
       <c r="C82" s="2" t="s">
-        <v>236</v>
+        <v>243</v>
       </c>
       <c r="D82" s="3">
         <v>1</v>
@@ -10991,7 +11618,7 @@
     <row r="83" ht="17.6" spans="2:6">
       <c r="B83" s="1"/>
       <c r="C83" s="2" t="s">
-        <v>237</v>
+        <v>244</v>
       </c>
       <c r="D83" s="3">
         <v>1</v>
@@ -11001,7 +11628,7 @@
     <row r="84" ht="17.6" spans="2:6">
       <c r="B84" s="1"/>
       <c r="C84" s="2" t="s">
-        <v>189</v>
+        <v>197</v>
       </c>
       <c r="D84" s="3">
         <v>1</v>
@@ -11011,7 +11638,7 @@
     <row r="85" ht="17.6" spans="2:6">
       <c r="B85" s="1"/>
       <c r="C85" s="2" t="s">
-        <v>238</v>
+        <v>245</v>
       </c>
       <c r="D85" s="3">
         <v>1</v>
@@ -11074,7 +11701,7 @@
         <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>140</v>
+        <v>149</v>
       </c>
     </row>
     <row r="2" ht="17.6" spans="1:6">
@@ -11085,45 +11712,45 @@
         <v>6</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>156</v>
+        <v>165</v>
       </c>
       <c r="D2" s="3"/>
       <c r="E2" t="s">
-        <v>239</v>
+        <v>246</v>
       </c>
     </row>
     <row r="3" ht="17.6" spans="1:6">
       <c r="B3" s="4"/>
       <c r="C3" s="2" t="s">
-        <v>201</v>
+        <v>105</v>
       </c>
       <c r="D3" s="3"/>
     </row>
     <row r="4" ht="17.6" spans="1:6">
       <c r="B4" s="4"/>
       <c r="C4" s="2" t="s">
-        <v>240</v>
+        <v>247</v>
       </c>
       <c r="D4" s="3"/>
     </row>
     <row r="5" ht="17.6" spans="1:6">
       <c r="B5" s="4"/>
       <c r="C5" s="2" t="s">
-        <v>241</v>
+        <v>248</v>
       </c>
       <c r="D5" s="3"/>
     </row>
     <row r="6" ht="17.6" spans="1:6">
       <c r="B6" s="4"/>
       <c r="C6" s="2" t="s">
-        <v>242</v>
+        <v>249</v>
       </c>
       <c r="D6" s="3"/>
     </row>
     <row r="7" ht="17.6" spans="1:6">
       <c r="B7" s="4"/>
       <c r="C7" s="2" t="s">
-        <v>243</v>
+        <v>250</v>
       </c>
       <c r="D7" s="3"/>
     </row>
@@ -11260,7 +11887,7 @@
         <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>140</v>
+        <v>149</v>
       </c>
     </row>
     <row r="2" ht="17.6" spans="1:6">
@@ -11271,7 +11898,7 @@
         <v>82</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>105</v>
+        <v>251</v>
       </c>
       <c r="D2" s="3"/>
       <c r="E2" t="s">
@@ -11281,7 +11908,7 @@
     <row r="3" ht="17.6" spans="1:6">
       <c r="B3" s="4"/>
       <c r="C3" s="2" t="s">
-        <v>107</v>
+        <v>252</v>
       </c>
       <c r="D3" s="3"/>
     </row>
@@ -11330,7 +11957,7 @@
     <row r="10" ht="17.6" spans="1:6">
       <c r="B10" s="4"/>
       <c r="C10" s="2" t="s">
-        <v>108</v>
+        <v>253</v>
       </c>
       <c r="D10" s="3"/>
     </row>
@@ -11400,7 +12027,7 @@
     <row r="20" ht="17.6" spans="2:4">
       <c r="B20" s="4"/>
       <c r="C20" s="2" t="s">
-        <v>109</v>
+        <v>254</v>
       </c>
     </row>
   </sheetData>
@@ -11446,7 +12073,7 @@
         <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>140</v>
+        <v>149</v>
       </c>
     </row>
     <row r="2" ht="17.6" spans="1:6">
@@ -11463,7 +12090,7 @@
         <v>5</v>
       </c>
       <c r="E2" t="s">
-        <v>244</v>
+        <v>255</v>
       </c>
       <c r="F2">
         <v>126</v>
@@ -11762,7 +12389,7 @@
     <row r="35" ht="17.6" spans="2:4">
       <c r="B35" s="4"/>
       <c r="C35" s="2" t="s">
-        <v>245</v>
+        <v>256</v>
       </c>
       <c r="D35" s="3">
         <v>1</v>
@@ -11771,7 +12398,7 @@
     <row r="36" ht="17.6" spans="2:4">
       <c r="B36" s="4"/>
       <c r="C36" s="2" t="s">
-        <v>131</v>
+        <v>140</v>
       </c>
       <c r="D36" s="3">
         <v>1</v>
@@ -11789,7 +12416,7 @@
     <row r="38" ht="17.6" spans="2:4">
       <c r="B38" s="4"/>
       <c r="C38" s="2" t="s">
-        <v>246</v>
+        <v>257</v>
       </c>
       <c r="D38" s="3">
         <v>1</v>
@@ -11825,7 +12452,7 @@
     <row r="42" ht="17.6" spans="2:4">
       <c r="B42" s="4"/>
       <c r="C42" s="2" t="s">
-        <v>191</v>
+        <v>199</v>
       </c>
       <c r="D42" s="3">
         <v>1</v>
@@ -11888,7 +12515,7 @@
     <row r="49" ht="17.6" spans="2:4">
       <c r="B49" s="4"/>
       <c r="C49" s="2" t="s">
-        <v>247</v>
+        <v>258</v>
       </c>
       <c r="D49" s="3">
         <v>1</v>
@@ -11897,7 +12524,7 @@
     <row r="50" ht="17.6" spans="2:4">
       <c r="B50" s="4"/>
       <c r="C50" s="2" t="s">
-        <v>150</v>
+        <v>159</v>
       </c>
       <c r="D50" s="3">
         <v>1</v>
@@ -11967,7 +12594,7 @@
   <sheetPr codeName="慈航學校"/>
   <dimension ref="A1:F77"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
@@ -11993,7 +12620,7 @@
         <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>140</v>
+        <v>149</v>
       </c>
     </row>
     <row r="2" ht="17.6" spans="1:6">
@@ -12007,7 +12634,7 @@
         <v>1</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>248</v>
+        <v>259</v>
       </c>
     </row>
     <row r="3" ht="17.6" spans="1:6">
@@ -12112,7 +12739,7 @@
     <row r="14" ht="17.6" spans="1:6">
       <c r="B14" s="4"/>
       <c r="C14" s="2" t="s">
-        <v>249</v>
+        <v>260</v>
       </c>
       <c r="D14" s="3">
         <v>1</v>
@@ -12139,7 +12766,7 @@
     <row r="17" ht="17.6" spans="2:4">
       <c r="B17" s="4"/>
       <c r="C17" s="2" t="s">
-        <v>130</v>
+        <v>139</v>
       </c>
       <c r="D17" s="3">
         <v>2</v>
@@ -12202,7 +12829,7 @@
     <row r="24" ht="17.6" spans="2:4">
       <c r="B24" s="4"/>
       <c r="C24" s="2" t="s">
-        <v>250</v>
+        <v>261</v>
       </c>
       <c r="D24" s="3">
         <v>1</v>
@@ -12238,7 +12865,7 @@
     <row r="28" ht="17.6" spans="2:4">
       <c r="B28" s="4"/>
       <c r="C28" s="2" t="s">
-        <v>167</v>
+        <v>115</v>
       </c>
       <c r="D28" s="3">
         <v>4</v>
@@ -12247,7 +12874,7 @@
     <row r="29" ht="17.6" spans="2:4">
       <c r="B29" s="4"/>
       <c r="C29" s="2" t="s">
-        <v>251</v>
+        <v>262</v>
       </c>
       <c r="D29" s="3">
         <v>1</v>
@@ -12339,7 +12966,7 @@
     <row r="39" ht="17.6" spans="2:4">
       <c r="B39" s="9"/>
       <c r="C39" s="2" t="s">
-        <v>252</v>
+        <v>263</v>
       </c>
       <c r="D39" s="3">
         <v>1</v>
@@ -12357,7 +12984,7 @@
     <row r="41" ht="17.6" spans="2:4">
       <c r="B41" s="9"/>
       <c r="C41" s="2" t="s">
-        <v>253</v>
+        <v>264</v>
       </c>
       <c r="D41" s="3">
         <v>0</v>
@@ -12366,7 +12993,7 @@
     <row r="42" ht="17.6" spans="2:4">
       <c r="B42" s="9"/>
       <c r="C42" s="2" t="s">
-        <v>150</v>
+        <v>159</v>
       </c>
       <c r="D42" s="3">
         <v>0</v>
@@ -12420,7 +13047,7 @@
     <row r="48" ht="17.6" spans="2:4">
       <c r="B48" s="9"/>
       <c r="C48" s="2" t="s">
-        <v>254</v>
+        <v>265</v>
       </c>
       <c r="D48" s="3">
         <v>1</v>
@@ -12447,7 +13074,7 @@
     <row r="51" ht="17.6" spans="2:4">
       <c r="B51" s="9"/>
       <c r="C51" s="2" t="s">
-        <v>255</v>
+        <v>266</v>
       </c>
       <c r="D51" s="3">
         <v>1</v>
@@ -12456,7 +13083,7 @@
     <row r="52" ht="17.6" spans="2:4">
       <c r="B52" s="9"/>
       <c r="C52" s="2" t="s">
-        <v>256</v>
+        <v>267</v>
       </c>
       <c r="D52" s="3">
         <v>1</v>
@@ -12465,7 +13092,7 @@
     <row r="53" ht="17.6" spans="2:4">
       <c r="B53" s="9"/>
       <c r="C53" s="2" t="s">
-        <v>257</v>
+        <v>268</v>
       </c>
       <c r="D53" s="3">
         <v>0</v>
@@ -12519,7 +13146,7 @@
     <row r="59" ht="17.6" spans="2:4">
       <c r="B59" s="9"/>
       <c r="C59" s="2" t="s">
-        <v>258</v>
+        <v>269</v>
       </c>
       <c r="D59" s="3">
         <v>0</v>
@@ -12528,7 +13155,7 @@
     <row r="60" ht="17.6" spans="2:4">
       <c r="B60" s="9"/>
       <c r="C60" s="2" t="s">
-        <v>259</v>
+        <v>270</v>
       </c>
       <c r="D60" s="3">
         <v>0</v>
@@ -12537,7 +13164,7 @@
     <row r="61" spans="2:4">
       <c r="B61" s="9"/>
       <c r="C61" s="2" t="s">
-        <v>121</v>
+        <v>130</v>
       </c>
       <c r="D61" s="3">
         <v>2</v>
@@ -12546,7 +13173,7 @@
     <row r="62" ht="17.6" spans="2:4">
       <c r="B62" s="9"/>
       <c r="C62" s="2" t="s">
-        <v>236</v>
+        <v>243</v>
       </c>
       <c r="D62" s="3">
         <v>1</v>
@@ -12636,7 +13263,7 @@
     <row r="72" ht="17.6" spans="2:4">
       <c r="B72" s="9"/>
       <c r="C72" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D72" s="3">
         <v>8</v>
@@ -12645,7 +13272,7 @@
     <row r="73" ht="17.6" spans="2:4">
       <c r="B73" s="9"/>
       <c r="C73" s="2" t="s">
-        <v>167</v>
+        <v>115</v>
       </c>
       <c r="D73" s="3">
         <v>1</v>
@@ -12663,7 +13290,7 @@
     <row r="75" ht="17.6" spans="2:4">
       <c r="B75" s="9"/>
       <c r="C75" s="2" t="s">
-        <v>260</v>
+        <v>271</v>
       </c>
       <c r="D75" s="3">
         <v>0</v>
@@ -12672,7 +13299,7 @@
     <row r="76" ht="17.6" spans="2:4">
       <c r="B76" s="9"/>
       <c r="C76" s="2" t="s">
-        <v>137</v>
+        <v>146</v>
       </c>
       <c r="D76" s="3">
         <v>0</v>
@@ -12725,7 +13352,7 @@
         <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>140</v>
+        <v>149</v>
       </c>
     </row>
     <row r="2" ht="17.6" spans="1:6">
@@ -12736,11 +13363,11 @@
         <v>82</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>154</v>
+        <v>163</v>
       </c>
       <c r="D2" s="3"/>
       <c r="E2" t="s">
-        <v>261</v>
+        <v>272</v>
       </c>
     </row>
     <row r="3" ht="17.6" spans="1:6">
@@ -12830,7 +13457,7 @@
     <row r="15" ht="17.6" spans="1:6">
       <c r="B15" s="4"/>
       <c r="C15" s="2" t="s">
-        <v>152</v>
+        <v>161</v>
       </c>
       <c r="D15" s="3"/>
     </row>
@@ -12844,7 +13471,7 @@
     <row r="17" ht="17.6" spans="2:4">
       <c r="B17" s="4"/>
       <c r="C17" s="2" t="s">
-        <v>247</v>
+        <v>258</v>
       </c>
       <c r="D17" s="3"/>
     </row>
@@ -12955,7 +13582,7 @@
     </row>
     <row r="33" ht="17.6" spans="2:4">
       <c r="B33" s="2" t="s">
-        <v>262</v>
+        <v>273</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>14</v>
@@ -12979,7 +13606,7 @@
     <row r="36" ht="17.6" spans="2:4">
       <c r="B36" s="4"/>
       <c r="C36" s="2" t="s">
-        <v>249</v>
+        <v>260</v>
       </c>
       <c r="D36" s="3"/>
     </row>
@@ -13084,7 +13711,7 @@
     <row r="51" ht="17.6" spans="2:4">
       <c r="B51" s="4"/>
       <c r="C51" s="2" t="s">
-        <v>263</v>
+        <v>274</v>
       </c>
       <c r="D51" s="3"/>
     </row>
@@ -13147,7 +13774,7 @@
         <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>140</v>
+        <v>149</v>
       </c>
     </row>
     <row r="2" ht="17.6" spans="1:6">
@@ -13164,7 +13791,7 @@
         <v>11</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>264</v>
+        <v>275</v>
       </c>
     </row>
     <row r="3" ht="17.6" spans="1:6">
@@ -13176,7 +13803,7 @@
         <v>8</v>
       </c>
       <c r="E3" t="s">
-        <v>265</v>
+        <v>276</v>
       </c>
     </row>
     <row r="4" ht="17.6" spans="1:6">
@@ -13272,7 +13899,7 @@
     <row r="14" ht="17.6" spans="1:6">
       <c r="B14" s="4"/>
       <c r="C14" s="2" t="s">
-        <v>150</v>
+        <v>159</v>
       </c>
       <c r="D14" s="3">
         <v>2</v>
@@ -13281,7 +13908,7 @@
     <row r="15" ht="17.6" spans="1:6">
       <c r="B15" s="4"/>
       <c r="C15" s="2" t="s">
-        <v>266</v>
+        <v>277</v>
       </c>
       <c r="D15" s="3">
         <v>1</v>
@@ -13371,7 +13998,7 @@
     <row r="25" ht="17.6" spans="2:4">
       <c r="B25" s="4"/>
       <c r="C25" s="2" t="s">
-        <v>152</v>
+        <v>161</v>
       </c>
       <c r="D25" s="3">
         <v>1</v>
@@ -13380,7 +14007,7 @@
     <row r="26" ht="17.6" spans="2:4">
       <c r="B26" s="4"/>
       <c r="C26" s="2" t="s">
-        <v>192</v>
+        <v>200</v>
       </c>
       <c r="D26" s="3">
         <v>4</v>
@@ -13389,7 +14016,7 @@
     <row r="27" spans="2:4">
       <c r="B27" s="4"/>
       <c r="C27" s="11" t="s">
-        <v>267</v>
+        <v>278</v>
       </c>
       <c r="D27" s="3">
         <v>1</v>
@@ -13398,7 +14025,7 @@
     <row r="28" ht="17.6" spans="2:4">
       <c r="B28" s="4"/>
       <c r="C28" s="2" t="s">
-        <v>154</v>
+        <v>163</v>
       </c>
       <c r="D28" s="3">
         <v>1</v>
@@ -13407,7 +14034,7 @@
     <row r="29" ht="17.6" spans="2:4">
       <c r="B29" s="4"/>
       <c r="C29" s="2" t="s">
-        <v>268</v>
+        <v>279</v>
       </c>
       <c r="D29" s="3">
         <v>1</v>
@@ -13416,7 +14043,7 @@
     <row r="30" ht="17.6" spans="2:4">
       <c r="B30" s="4"/>
       <c r="C30" s="2" t="s">
-        <v>156</v>
+        <v>165</v>
       </c>
       <c r="D30" s="3">
         <v>1</v>
@@ -13434,7 +14061,7 @@
     <row r="32" spans="2:4">
       <c r="B32" s="4"/>
       <c r="C32" s="11" t="s">
-        <v>128</v>
+        <v>137</v>
       </c>
       <c r="D32" s="3">
         <v>1</v>
@@ -13461,7 +14088,7 @@
     <row r="35" ht="17.6" spans="2:4">
       <c r="B35" s="4"/>
       <c r="C35" s="2" t="s">
-        <v>257</v>
+        <v>268</v>
       </c>
       <c r="D35" s="3">
         <v>1</v>
@@ -13470,7 +14097,7 @@
     <row r="36" ht="17.6" spans="2:4">
       <c r="B36" s="4"/>
       <c r="C36" s="2" t="s">
-        <v>269</v>
+        <v>280</v>
       </c>
       <c r="D36" s="3">
         <v>1</v>
@@ -13488,7 +14115,7 @@
     <row r="38" ht="17.6" spans="2:4">
       <c r="B38" s="4"/>
       <c r="C38" s="2" t="s">
-        <v>270</v>
+        <v>281</v>
       </c>
       <c r="D38" s="3">
         <v>1</v>
@@ -13497,7 +14124,7 @@
     <row r="39" ht="17.6" spans="2:4">
       <c r="B39" s="4"/>
       <c r="C39" s="2" t="s">
-        <v>271</v>
+        <v>282</v>
       </c>
       <c r="D39" s="3">
         <v>2</v>
@@ -13548,7 +14175,7 @@
         <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>140</v>
+        <v>149</v>
       </c>
     </row>
     <row r="2" ht="17.6" spans="1:6">
@@ -13563,7 +14190,7 @@
       </c>
       <c r="D2" s="3"/>
       <c r="E2" t="s">
-        <v>272</v>
+        <v>283</v>
       </c>
     </row>
     <row r="3" ht="17.6" spans="1:6">
@@ -13653,7 +14280,7 @@
     <row r="15" ht="17.6" spans="1:6">
       <c r="B15" s="4"/>
       <c r="C15" s="2" t="s">
-        <v>273</v>
+        <v>284</v>
       </c>
       <c r="D15" s="3"/>
     </row>
@@ -13667,14 +14294,14 @@
     <row r="17" ht="17.6" spans="2:4">
       <c r="B17" s="4"/>
       <c r="C17" s="2" t="s">
-        <v>214</v>
+        <v>221</v>
       </c>
       <c r="D17" s="3"/>
     </row>
     <row r="18" ht="17.6" spans="2:4">
       <c r="B18" s="4"/>
       <c r="C18" s="2" t="s">
-        <v>274</v>
+        <v>285</v>
       </c>
     </row>
   </sheetData>
@@ -13723,7 +14350,7 @@
         <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>140</v>
+        <v>149</v>
       </c>
     </row>
     <row r="2" ht="16" spans="1:6">
@@ -13740,7 +14367,7 @@
         <v>5</v>
       </c>
       <c r="E2" t="s">
-        <v>275</v>
+        <v>286</v>
       </c>
       <c r="F2" s="5">
         <v>126</v>
@@ -13748,7 +14375,7 @@
     </row>
     <row r="3" ht="15.2" spans="1:6">
       <c r="C3" t="s">
-        <v>276</v>
+        <v>287</v>
       </c>
       <c r="D3">
         <v>3</v>
@@ -13764,7 +14391,7 @@
     </row>
     <row r="5" ht="15.2" spans="1:6">
       <c r="C5" t="s">
-        <v>134</v>
+        <v>143</v>
       </c>
       <c r="D5">
         <v>2</v>
@@ -13772,7 +14399,7 @@
     </row>
     <row r="6" ht="15.2" spans="1:6">
       <c r="C6" t="s">
-        <v>152</v>
+        <v>161</v>
       </c>
       <c r="D6">
         <v>1</v>
@@ -13780,7 +14407,7 @@
     </row>
     <row r="7" ht="15.2" spans="1:6">
       <c r="C7" t="s">
-        <v>191</v>
+        <v>199</v>
       </c>
       <c r="D7">
         <v>2</v>
@@ -13788,7 +14415,7 @@
     </row>
     <row r="8" ht="16" spans="1:6">
       <c r="C8" s="6" t="s">
-        <v>277</v>
+        <v>288</v>
       </c>
       <c r="D8">
         <v>4</v>
@@ -13796,7 +14423,7 @@
     </row>
     <row r="9" ht="15.2" spans="1:6">
       <c r="C9" t="s">
-        <v>156</v>
+        <v>165</v>
       </c>
       <c r="D9">
         <v>4</v>
@@ -13812,7 +14439,7 @@
     </row>
     <row r="11" ht="15.2" spans="1:6">
       <c r="C11" t="s">
-        <v>278</v>
+        <v>289</v>
       </c>
       <c r="D11">
         <v>1</v>
@@ -13820,7 +14447,7 @@
     </row>
     <row r="12" ht="15.2" spans="1:6">
       <c r="C12" t="s">
-        <v>279</v>
+        <v>290</v>
       </c>
       <c r="D12">
         <v>1</v>
@@ -13828,7 +14455,7 @@
     </row>
     <row r="13" ht="15.2" spans="1:6">
       <c r="C13" t="s">
-        <v>280</v>
+        <v>291</v>
       </c>
       <c r="D13">
         <v>4</v>
@@ -13844,7 +14471,7 @@
     </row>
     <row r="15" ht="15.2" spans="1:6">
       <c r="C15" t="s">
-        <v>281</v>
+        <v>292</v>
       </c>
       <c r="D15">
         <v>1</v>
@@ -13860,7 +14487,7 @@
     </row>
     <row r="17" ht="15.2" spans="3:4">
       <c r="C17" t="s">
-        <v>282</v>
+        <v>293</v>
       </c>
       <c r="D17">
         <v>1</v>
@@ -13980,7 +14607,7 @@
     </row>
     <row r="32" ht="15.2" spans="3:4">
       <c r="C32" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D32">
         <v>2</v>
@@ -13988,7 +14615,7 @@
     </row>
     <row r="33" ht="16" spans="3:4">
       <c r="C33" s="7" t="s">
-        <v>283</v>
+        <v>294</v>
       </c>
       <c r="D33">
         <v>2</v>
@@ -14063,7 +14690,7 @@
         <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>140</v>
+        <v>149</v>
       </c>
     </row>
     <row r="2" ht="17.6" spans="1:6">
@@ -14074,11 +14701,11 @@
         <v>82</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>134</v>
+        <v>143</v>
       </c>
       <c r="D2" s="3"/>
       <c r="E2" t="s">
-        <v>284</v>
+        <v>295</v>
       </c>
     </row>
     <row r="3" ht="17.6" spans="1:6">
@@ -14091,14 +14718,14 @@
     <row r="4" ht="17.6" spans="1:6">
       <c r="B4" s="4"/>
       <c r="C4" s="2" t="s">
-        <v>192</v>
+        <v>200</v>
       </c>
       <c r="D4" s="3"/>
     </row>
     <row r="5" ht="17.6" spans="1:6">
       <c r="B5" s="4"/>
       <c r="C5" s="2" t="s">
-        <v>285</v>
+        <v>296</v>
       </c>
       <c r="D5" s="3"/>
     </row>
@@ -14133,7 +14760,7 @@
     <row r="10" ht="17.6" spans="1:6">
       <c r="B10" s="4"/>
       <c r="C10" s="2" t="s">
-        <v>286</v>
+        <v>297</v>
       </c>
       <c r="D10" s="3"/>
     </row>
@@ -14147,7 +14774,7 @@
     <row r="12" ht="17.6" spans="1:6">
       <c r="B12" s="4"/>
       <c r="C12" s="2" t="s">
-        <v>287</v>
+        <v>298</v>
       </c>
       <c r="D12" s="3"/>
     </row>
@@ -14161,14 +14788,14 @@
     <row r="14" ht="17.6" spans="1:6">
       <c r="B14" s="4"/>
       <c r="C14" s="2" t="s">
-        <v>288</v>
+        <v>299</v>
       </c>
       <c r="D14" s="3"/>
     </row>
     <row r="15" ht="17.6" spans="1:6">
       <c r="B15" s="4"/>
       <c r="C15" s="2" t="s">
-        <v>289</v>
+        <v>300</v>
       </c>
       <c r="D15" s="3"/>
     </row>
@@ -14259,7 +14886,7 @@
     <row r="28" ht="17.6" spans="2:4">
       <c r="B28" s="4"/>
       <c r="C28" s="2" t="s">
-        <v>290</v>
+        <v>301</v>
       </c>
       <c r="D28" s="3"/>
     </row>
